--- a/BAOCAO/Tailieuthietke/FormQLĐĐH.xlsx
+++ b/BAOCAO/Tailieuthietke/FormQLĐĐH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.a_LearningOnline\A.MonTT\ĐBCLPM\Thầy trụ\Thiết kế các layout cơ bản\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_workspace\a_DO_AN_MTT\TTTN\BAOCAO\Tailieuthietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8BA47C-5E0C-4B5E-9FF6-7513B4AACB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E22F2-B74B-4A74-9DA2-1C076B43FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="129">
   <si>
     <t>Posts and Telecommunications Institute of Technology</t>
   </si>
@@ -229,30 +229,12 @@
     <t>Sử dụng</t>
   </si>
   <si>
-    <t>Tên đăng nhập</t>
-  </si>
-  <si>
     <t>có thể</t>
   </si>
   <si>
-    <t>Mật khẩu</t>
-  </si>
-  <si>
-    <t>a. Check hạng mục</t>
-  </si>
-  <si>
-    <t>Nội dung check</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Trường hợp chưa nhập, báo lỗi</t>
-  </si>
-  <si>
-    <t>Trường hợp nhập mật khẩu chưa đúng định dạng, báo lỗi</t>
-  </si>
-  <si>
     <t>Đối tượng</t>
   </si>
   <si>
@@ -434,6 +416,9 @@
   </si>
   <si>
     <t>2. Xử lý kiểm tra trạng thái đơn hàng hiện tại, thay đổi trạng thái tiếp theo cho đơn hàng khi đạt được yêu cầu trạng thái</t>
+  </si>
+  <si>
+    <t>a. Trạng thái đầu tiên "Chờ xác nhận"</t>
   </si>
 </sst>
 </file>
@@ -574,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -771,43 +756,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -886,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,16 +916,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -990,7 +938,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1001,10 +949,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1013,8 +957,23 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,7 +983,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,272 +1064,184 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4871,348 +4811,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="66" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="82" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="82" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="83" t="s">
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="83"/>
-      <c r="W1" s="94">
+      <c r="V1" s="65"/>
+      <c r="W1" s="66">
         <v>45026</v>
       </c>
-      <c r="X1" s="88"/>
+      <c r="X1" s="64"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="82" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="83" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="82" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="83" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="90"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="78"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="91"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="90"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="91"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="90"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="78"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="91"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="90"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="78"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="91"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="90"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="78"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="91"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="90"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="91"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="90"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="78"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="91"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="90"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="78"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="91"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="90"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="78"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="3"/>
@@ -5221,21 +5161,21 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -5249,19 +5189,19 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -5275,19 +5215,19 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -5301,19 +5241,19 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -5327,19 +5267,19 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -5743,112 +5683,112 @@
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="66" t="s">
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="95" t="s">
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="95"/>
-      <c r="L40" s="66" t="s">
+      <c r="K40" s="71"/>
+      <c r="L40" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="95" t="s">
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="66" t="s">
+      <c r="Q40" s="71"/>
+      <c r="R40" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="96" t="s">
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="V40" s="96"/>
-      <c r="W40" s="94">
+      <c r="V40" s="75"/>
+      <c r="W40" s="66">
         <v>45026</v>
       </c>
-      <c r="X40" s="88"/>
+      <c r="X40" s="64"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="95" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="96" t="s">
+      <c r="Q41" s="71"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="96"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="95" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="95"/>
-      <c r="L42" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="96" t="s">
+      <c r="K42" s="71"/>
+      <c r="L42" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="14"/>
@@ -5890,830 +5830,830 @@
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1">
       <c r="A47" s="8"/>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76" t="s">
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76" t="s">
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="75"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="89"/>
       <c r="W47" s="4"/>
       <c r="X47" s="10"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" thickBot="1">
       <c r="A48" s="8"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="95" t="s">
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95" t="s">
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95" t="s">
+      <c r="R48" s="71"/>
+      <c r="S48" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95" t="s">
+      <c r="T48" s="71"/>
+      <c r="U48" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="V48" s="95"/>
+      <c r="V48" s="71"/>
       <c r="W48" s="4"/>
       <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="8"/>
-      <c r="B49" s="84">
+      <c r="B49" s="72">
         <v>1</v>
       </c>
-      <c r="C49" s="97">
+      <c r="C49" s="73">
         <v>45026</v>
       </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84" t="s">
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84" t="s">
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
       <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="8"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
       <c r="X50" s="10"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="8"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="72"/>
       <c r="X51" s="10"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="8"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
       <c r="X52" s="10"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="8"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
       <c r="X53" s="10"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="8"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
       <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="8"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
       <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="8"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="84"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
       <c r="X56" s="10"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="8"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="84"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
       <c r="X57" s="10"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="8"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
-      <c r="U58" s="84"/>
-      <c r="V58" s="84"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="72"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="72"/>
+      <c r="V58" s="72"/>
       <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="8"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="84"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="72"/>
+      <c r="U59" s="72"/>
+      <c r="V59" s="72"/>
       <c r="X59" s="10"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="8"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="72"/>
+      <c r="U60" s="72"/>
+      <c r="V60" s="72"/>
       <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="8"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
-      <c r="U61" s="84"/>
-      <c r="V61" s="84"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="72"/>
+      <c r="V61" s="72"/>
       <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="8"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="S62" s="84"/>
-      <c r="T62" s="84"/>
-      <c r="U62" s="84"/>
-      <c r="V62" s="84"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="72"/>
+      <c r="U62" s="72"/>
+      <c r="V62" s="72"/>
       <c r="X62" s="10"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="8"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
+      <c r="V63" s="72"/>
       <c r="X63" s="10"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="8"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="84"/>
-      <c r="T64" s="84"/>
-      <c r="U64" s="84"/>
-      <c r="V64" s="84"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72"/>
       <c r="X64" s="10"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="8"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="84"/>
-      <c r="V65" s="84"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="72"/>
+      <c r="V65" s="72"/>
       <c r="X65" s="10"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="72"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="72"/>
+      <c r="U66" s="72"/>
+      <c r="V66" s="72"/>
       <c r="X66" s="10"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="8"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="84"/>
-      <c r="T67" s="84"/>
-      <c r="U67" s="84"/>
-      <c r="V67" s="84"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
       <c r="X67" s="10"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="8"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="84"/>
-      <c r="V68" s="84"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="72"/>
       <c r="X68" s="10"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="8"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="72"/>
+      <c r="O69" s="72"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
+      <c r="V69" s="72"/>
       <c r="X69" s="10"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="8"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
       <c r="X70" s="10"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="8"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
-      <c r="V71" s="84"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
       <c r="X71" s="10"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="8"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
-      <c r="T72" s="84"/>
-      <c r="U72" s="84"/>
-      <c r="V72" s="84"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
+      <c r="V72" s="72"/>
       <c r="X72" s="10"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="8"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="84"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
       <c r="X73" s="10"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="8"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="84"/>
-      <c r="S74" s="84"/>
-      <c r="T74" s="84"/>
-      <c r="U74" s="84"/>
-      <c r="V74" s="84"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
       <c r="X74" s="10"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="8"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
       <c r="X75" s="10"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" thickBot="1">
       <c r="A76" s="8"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
-      <c r="O76" s="85"/>
-      <c r="P76" s="85"/>
-      <c r="Q76" s="85"/>
-      <c r="R76" s="85"/>
-      <c r="S76" s="85"/>
-      <c r="T76" s="85"/>
-      <c r="U76" s="85"/>
-      <c r="V76" s="86"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="82"/>
+      <c r="O76" s="82"/>
+      <c r="P76" s="82"/>
+      <c r="Q76" s="82"/>
+      <c r="R76" s="82"/>
+      <c r="S76" s="82"/>
+      <c r="T76" s="82"/>
+      <c r="U76" s="82"/>
+      <c r="V76" s="83"/>
       <c r="W76" s="18"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="8"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="8"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="87"/>
-      <c r="O77" s="87"/>
-      <c r="P77" s="87"/>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="87"/>
-      <c r="S77" s="87"/>
-      <c r="T77" s="87"/>
-      <c r="U77" s="87"/>
-      <c r="V77" s="87"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="77"/>
+      <c r="T77" s="77"/>
+      <c r="U77" s="77"/>
+      <c r="V77" s="77"/>
       <c r="X77" s="10"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="87"/>
-      <c r="S78" s="87"/>
-      <c r="T78" s="87"/>
-      <c r="U78" s="87"/>
-      <c r="V78" s="87"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="77"/>
+      <c r="S78" s="77"/>
+      <c r="T78" s="77"/>
+      <c r="U78" s="77"/>
+      <c r="V78" s="77"/>
       <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:25">
@@ -6747,112 +6687,112 @@
       <c r="X80" s="13"/>
     </row>
     <row r="81" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="66" t="s">
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66" t="s">
+      <c r="F81" s="63"/>
+      <c r="G81" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="82" t="s">
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="82"/>
-      <c r="L81" s="66" t="s">
+      <c r="K81" s="62"/>
+      <c r="L81" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="82" t="s">
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q81" s="82"/>
-      <c r="R81" s="66" t="s">
+      <c r="Q81" s="62"/>
+      <c r="R81" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="83" t="s">
+      <c r="S81" s="63"/>
+      <c r="T81" s="63"/>
+      <c r="U81" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="83"/>
-      <c r="W81" s="94">
+      <c r="V81" s="65"/>
+      <c r="W81" s="66">
         <v>45026</v>
       </c>
-      <c r="X81" s="88"/>
+      <c r="X81" s="64"/>
     </row>
     <row r="82" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A82" s="81"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="82"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="82" t="s">
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="82"/>
-      <c r="R82" s="88"/>
-      <c r="S82" s="88"/>
-      <c r="T82" s="88"/>
-      <c r="U82" s="83" t="s">
+      <c r="Q82" s="62"/>
+      <c r="R82" s="64"/>
+      <c r="S82" s="64"/>
+      <c r="T82" s="64"/>
+      <c r="U82" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="83"/>
-      <c r="W82" s="88"/>
-      <c r="X82" s="88"/>
+      <c r="V82" s="65"/>
+      <c r="W82" s="64"/>
+      <c r="X82" s="64"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A83" s="81"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="82" t="s">
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="82"/>
-      <c r="L83" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M83" s="88"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="88"/>
-      <c r="P83" s="83" t="s">
+      <c r="K83" s="62"/>
+      <c r="L83" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S83" s="88"/>
-      <c r="T83" s="88"/>
-      <c r="U83" s="88"/>
-      <c r="V83" s="88"/>
-      <c r="W83" s="88"/>
-      <c r="X83" s="88"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S83" s="64"/>
+      <c r="T83" s="64"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="64"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="14"/>
@@ -6892,7 +6832,7 @@
       <c r="A86" s="8"/>
       <c r="B86" s="19"/>
       <c r="C86" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="X86" s="10"/>
     </row>
@@ -6900,7 +6840,7 @@
       <c r="A87" s="8"/>
       <c r="B87" s="19"/>
       <c r="C87" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="X87" s="10"/>
     </row>
@@ -6908,7 +6848,7 @@
       <c r="A88" s="8"/>
       <c r="B88" s="19"/>
       <c r="C88" s="21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="X88" s="10"/>
     </row>
@@ -7109,112 +7049,112 @@
       <c r="X121" s="13"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="81" t="s">
+      <c r="A122" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="81"/>
-      <c r="C122" s="81"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="66" t="s">
+      <c r="B122" s="74"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66" t="s">
+      <c r="F122" s="63"/>
+      <c r="G122" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="82" t="s">
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="82"/>
-      <c r="L122" s="66" t="s">
+      <c r="K122" s="62"/>
+      <c r="L122" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="66"/>
-      <c r="N122" s="66"/>
-      <c r="O122" s="66"/>
-      <c r="P122" s="82" t="s">
+      <c r="M122" s="63"/>
+      <c r="N122" s="63"/>
+      <c r="O122" s="63"/>
+      <c r="P122" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="82"/>
-      <c r="R122" s="66" t="s">
+      <c r="Q122" s="62"/>
+      <c r="R122" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S122" s="66"/>
-      <c r="T122" s="66"/>
-      <c r="U122" s="83" t="s">
+      <c r="S122" s="63"/>
+      <c r="T122" s="63"/>
+      <c r="U122" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V122" s="83"/>
-      <c r="W122" s="94">
+      <c r="V122" s="65"/>
+      <c r="W122" s="66">
         <v>45026</v>
       </c>
-      <c r="X122" s="88"/>
+      <c r="X122" s="64"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="81"/>
-      <c r="B123" s="81"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="82"/>
-      <c r="K123" s="82"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="66"/>
-      <c r="N123" s="66"/>
-      <c r="O123" s="66"/>
-      <c r="P123" s="82" t="s">
+      <c r="A123" s="74"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="63"/>
+      <c r="I123" s="63"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="62"/>
+      <c r="L123" s="63"/>
+      <c r="M123" s="63"/>
+      <c r="N123" s="63"/>
+      <c r="O123" s="63"/>
+      <c r="P123" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q123" s="82"/>
-      <c r="R123" s="88"/>
-      <c r="S123" s="88"/>
-      <c r="T123" s="88"/>
-      <c r="U123" s="83" t="s">
+      <c r="Q123" s="62"/>
+      <c r="R123" s="64"/>
+      <c r="S123" s="64"/>
+      <c r="T123" s="64"/>
+      <c r="U123" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V123" s="83"/>
-      <c r="W123" s="88"/>
-      <c r="X123" s="88"/>
+      <c r="V123" s="65"/>
+      <c r="W123" s="64"/>
+      <c r="X123" s="64"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="81"/>
-      <c r="B124" s="81"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="81"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="82" t="s">
+      <c r="A124" s="74"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="82"/>
-      <c r="L124" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M124" s="88"/>
-      <c r="N124" s="88"/>
-      <c r="O124" s="88"/>
-      <c r="P124" s="83" t="s">
+      <c r="K124" s="62"/>
+      <c r="L124" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M124" s="64"/>
+      <c r="N124" s="64"/>
+      <c r="O124" s="64"/>
+      <c r="P124" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="83"/>
-      <c r="R124" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S124" s="88"/>
-      <c r="T124" s="88"/>
-      <c r="U124" s="88"/>
-      <c r="V124" s="88"/>
-      <c r="W124" s="88"/>
-      <c r="X124" s="88"/>
+      <c r="Q124" s="65"/>
+      <c r="R124" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S124" s="64"/>
+      <c r="T124" s="64"/>
+      <c r="U124" s="64"/>
+      <c r="V124" s="64"/>
+      <c r="W124" s="64"/>
+      <c r="X124" s="64"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="14"/>
@@ -7470,31 +7410,31 @@
       <c r="C148" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="76" t="s">
+      <c r="D148" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E148" s="76"/>
-      <c r="F148" s="76" t="s">
+      <c r="E148" s="70"/>
+      <c r="F148" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G148" s="76"/>
-      <c r="H148" s="76"/>
-      <c r="I148" s="76"/>
-      <c r="J148" s="76"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="70"/>
+      <c r="J148" s="70"/>
       <c r="K148" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L148" s="77" t="s">
+      <c r="L148" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M148" s="78"/>
-      <c r="N148" s="78"/>
-      <c r="O148" s="78"/>
-      <c r="P148" s="78"/>
-      <c r="Q148" s="78"/>
-      <c r="R148" s="78"/>
-      <c r="S148" s="78"/>
-      <c r="T148" s="79"/>
+      <c r="M148" s="91"/>
+      <c r="N148" s="91"/>
+      <c r="O148" s="91"/>
+      <c r="P148" s="91"/>
+      <c r="Q148" s="91"/>
+      <c r="R148" s="91"/>
+      <c r="S148" s="91"/>
+      <c r="T148" s="92"/>
       <c r="X148" s="10"/>
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
@@ -7502,31 +7442,31 @@
       <c r="C149" s="39">
         <v>1</v>
       </c>
-      <c r="D149" s="80" t="s">
+      <c r="D149" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="E149" s="80"/>
-      <c r="F149" s="67" t="s">
+      <c r="E149" s="93"/>
+      <c r="F149" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="G149" s="68"/>
-      <c r="H149" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="I149" s="69"/>
-      <c r="J149" s="68"/>
+      <c r="G149" s="95"/>
+      <c r="H149" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="I149" s="96"/>
+      <c r="J149" s="95"/>
       <c r="K149" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L149" s="63"/>
-      <c r="M149" s="64"/>
-      <c r="N149" s="64"/>
-      <c r="O149" s="64"/>
-      <c r="P149" s="64"/>
-      <c r="Q149" s="64"/>
-      <c r="R149" s="64"/>
-      <c r="S149" s="64"/>
-      <c r="T149" s="65"/>
+      <c r="L149" s="67"/>
+      <c r="M149" s="68"/>
+      <c r="N149" s="68"/>
+      <c r="O149" s="68"/>
+      <c r="P149" s="68"/>
+      <c r="Q149" s="68"/>
+      <c r="R149" s="68"/>
+      <c r="S149" s="68"/>
+      <c r="T149" s="69"/>
       <c r="X149" s="10"/>
     </row>
     <row r="150" spans="1:24" ht="15.75" thickBot="1">
@@ -7534,31 +7474,31 @@
       <c r="C150" s="39">
         <v>2</v>
       </c>
-      <c r="D150" s="66" t="s">
+      <c r="D150" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E150" s="66"/>
-      <c r="F150" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G150" s="65"/>
-      <c r="H150" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="I150" s="64"/>
-      <c r="J150" s="65"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G150" s="69"/>
+      <c r="H150" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I150" s="68"/>
+      <c r="J150" s="69"/>
       <c r="K150" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L150" s="63"/>
-      <c r="M150" s="64"/>
-      <c r="N150" s="64"/>
-      <c r="O150" s="64"/>
-      <c r="P150" s="64"/>
-      <c r="Q150" s="64"/>
-      <c r="R150" s="64"/>
-      <c r="S150" s="64"/>
-      <c r="T150" s="65"/>
+      <c r="L150" s="67"/>
+      <c r="M150" s="68"/>
+      <c r="N150" s="68"/>
+      <c r="O150" s="68"/>
+      <c r="P150" s="68"/>
+      <c r="Q150" s="68"/>
+      <c r="R150" s="68"/>
+      <c r="S150" s="68"/>
+      <c r="T150" s="69"/>
       <c r="X150" s="10"/>
     </row>
     <row r="151" spans="1:24" ht="15.75" thickBot="1">
@@ -7566,31 +7506,31 @@
       <c r="C151" s="39">
         <v>3</v>
       </c>
-      <c r="D151" s="66" t="s">
+      <c r="D151" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="66"/>
-      <c r="F151" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="G151" s="65"/>
-      <c r="H151" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I151" s="64"/>
-      <c r="J151" s="65"/>
+      <c r="E151" s="63"/>
+      <c r="F151" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G151" s="69"/>
+      <c r="H151" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="I151" s="68"/>
+      <c r="J151" s="69"/>
       <c r="K151" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L151" s="63"/>
-      <c r="M151" s="64"/>
-      <c r="N151" s="64"/>
-      <c r="O151" s="64"/>
-      <c r="P151" s="64"/>
-      <c r="Q151" s="64"/>
-      <c r="R151" s="64"/>
-      <c r="S151" s="64"/>
-      <c r="T151" s="65"/>
+      <c r="L151" s="67"/>
+      <c r="M151" s="68"/>
+      <c r="N151" s="68"/>
+      <c r="O151" s="68"/>
+      <c r="P151" s="68"/>
+      <c r="Q151" s="68"/>
+      <c r="R151" s="68"/>
+      <c r="S151" s="68"/>
+      <c r="T151" s="69"/>
       <c r="X151" s="10"/>
     </row>
     <row r="152" spans="1:24" ht="15.75" thickBot="1">
@@ -7598,185 +7538,185 @@
       <c r="C152" s="1">
         <v>4</v>
       </c>
-      <c r="D152" s="66" t="s">
+      <c r="D152" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E152" s="66"/>
-      <c r="F152" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G152" s="65"/>
-      <c r="H152" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="I152" s="64"/>
-      <c r="J152" s="65"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" s="69"/>
+      <c r="H152" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I152" s="68"/>
+      <c r="J152" s="69"/>
       <c r="K152" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L152" s="63"/>
-      <c r="M152" s="64"/>
-      <c r="N152" s="64"/>
-      <c r="O152" s="64"/>
-      <c r="P152" s="64"/>
-      <c r="Q152" s="64"/>
-      <c r="R152" s="64"/>
-      <c r="S152" s="64"/>
-      <c r="T152" s="65"/>
+      <c r="L152" s="67"/>
+      <c r="M152" s="68"/>
+      <c r="N152" s="68"/>
+      <c r="O152" s="68"/>
+      <c r="P152" s="68"/>
+      <c r="Q152" s="68"/>
+      <c r="R152" s="68"/>
+      <c r="S152" s="68"/>
+      <c r="T152" s="69"/>
       <c r="X152" s="10"/>
     </row>
     <row r="153" spans="1:24" ht="15.75" thickBot="1">
       <c r="A153" s="8"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="66"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="63"/>
-      <c r="G153" s="65"/>
-      <c r="H153" s="63"/>
-      <c r="I153" s="64"/>
-      <c r="J153" s="65"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="69"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="63"/>
-      <c r="M153" s="64"/>
-      <c r="N153" s="64"/>
-      <c r="O153" s="64"/>
-      <c r="P153" s="64"/>
-      <c r="Q153" s="64"/>
-      <c r="R153" s="64"/>
-      <c r="S153" s="64"/>
-      <c r="T153" s="65"/>
+      <c r="L153" s="67"/>
+      <c r="M153" s="68"/>
+      <c r="N153" s="68"/>
+      <c r="O153" s="68"/>
+      <c r="P153" s="68"/>
+      <c r="Q153" s="68"/>
+      <c r="R153" s="68"/>
+      <c r="S153" s="68"/>
+      <c r="T153" s="69"/>
       <c r="X153" s="10"/>
     </row>
     <row r="154" spans="1:24" ht="15.75" thickBot="1">
       <c r="A154" s="8"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="63"/>
-      <c r="G154" s="65"/>
-      <c r="H154" s="63"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="65"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="68"/>
+      <c r="J154" s="69"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="63"/>
-      <c r="M154" s="64"/>
-      <c r="N154" s="64"/>
-      <c r="O154" s="64"/>
-      <c r="P154" s="64"/>
-      <c r="Q154" s="64"/>
-      <c r="R154" s="64"/>
-      <c r="S154" s="64"/>
-      <c r="T154" s="65"/>
+      <c r="L154" s="67"/>
+      <c r="M154" s="68"/>
+      <c r="N154" s="68"/>
+      <c r="O154" s="68"/>
+      <c r="P154" s="68"/>
+      <c r="Q154" s="68"/>
+      <c r="R154" s="68"/>
+      <c r="S154" s="68"/>
+      <c r="T154" s="69"/>
       <c r="X154" s="10"/>
     </row>
     <row r="155" spans="1:24" ht="15.75" thickBot="1">
       <c r="A155" s="8"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="65"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="64"/>
-      <c r="J155" s="65"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="68"/>
+      <c r="J155" s="69"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="63"/>
-      <c r="M155" s="64"/>
-      <c r="N155" s="64"/>
-      <c r="O155" s="64"/>
-      <c r="P155" s="64"/>
-      <c r="Q155" s="64"/>
-      <c r="R155" s="64"/>
-      <c r="S155" s="64"/>
-      <c r="T155" s="65"/>
+      <c r="L155" s="67"/>
+      <c r="M155" s="68"/>
+      <c r="N155" s="68"/>
+      <c r="O155" s="68"/>
+      <c r="P155" s="68"/>
+      <c r="Q155" s="68"/>
+      <c r="R155" s="68"/>
+      <c r="S155" s="68"/>
+      <c r="T155" s="69"/>
       <c r="X155" s="10"/>
     </row>
     <row r="156" spans="1:24" ht="15.75" thickBot="1">
       <c r="A156" s="8"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="63"/>
-      <c r="G156" s="65"/>
-      <c r="H156" s="63"/>
-      <c r="I156" s="64"/>
-      <c r="J156" s="65"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="67"/>
+      <c r="G156" s="69"/>
+      <c r="H156" s="67"/>
+      <c r="I156" s="68"/>
+      <c r="J156" s="69"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="63"/>
-      <c r="M156" s="64"/>
-      <c r="N156" s="64"/>
-      <c r="O156" s="64"/>
-      <c r="P156" s="64"/>
-      <c r="Q156" s="64"/>
-      <c r="R156" s="64"/>
-      <c r="S156" s="64"/>
-      <c r="T156" s="65"/>
+      <c r="L156" s="67"/>
+      <c r="M156" s="68"/>
+      <c r="N156" s="68"/>
+      <c r="O156" s="68"/>
+      <c r="P156" s="68"/>
+      <c r="Q156" s="68"/>
+      <c r="R156" s="68"/>
+      <c r="S156" s="68"/>
+      <c r="T156" s="69"/>
       <c r="X156" s="10"/>
     </row>
     <row r="157" spans="1:24" ht="15.75" thickBot="1">
       <c r="A157" s="8"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="65"/>
-      <c r="H157" s="63"/>
-      <c r="I157" s="64"/>
-      <c r="J157" s="65"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="68"/>
+      <c r="J157" s="69"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="63"/>
-      <c r="M157" s="64"/>
-      <c r="N157" s="64"/>
-      <c r="O157" s="64"/>
-      <c r="P157" s="64"/>
-      <c r="Q157" s="64"/>
-      <c r="R157" s="64"/>
-      <c r="S157" s="64"/>
-      <c r="T157" s="65"/>
+      <c r="L157" s="67"/>
+      <c r="M157" s="68"/>
+      <c r="N157" s="68"/>
+      <c r="O157" s="68"/>
+      <c r="P157" s="68"/>
+      <c r="Q157" s="68"/>
+      <c r="R157" s="68"/>
+      <c r="S157" s="68"/>
+      <c r="T157" s="69"/>
       <c r="X157" s="10"/>
     </row>
     <row r="158" spans="1:24" ht="15.75" thickBot="1">
       <c r="A158" s="8"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="66"/>
-      <c r="E158" s="66"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="65"/>
-      <c r="H158" s="63"/>
-      <c r="I158" s="64"/>
-      <c r="J158" s="65"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="69"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="68"/>
+      <c r="J158" s="69"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="63"/>
-      <c r="M158" s="64"/>
-      <c r="N158" s="64"/>
-      <c r="O158" s="64"/>
-      <c r="P158" s="64"/>
-      <c r="Q158" s="64"/>
-      <c r="R158" s="64"/>
-      <c r="S158" s="64"/>
-      <c r="T158" s="65"/>
+      <c r="L158" s="67"/>
+      <c r="M158" s="68"/>
+      <c r="N158" s="68"/>
+      <c r="O158" s="68"/>
+      <c r="P158" s="68"/>
+      <c r="Q158" s="68"/>
+      <c r="R158" s="68"/>
+      <c r="S158" s="68"/>
+      <c r="T158" s="69"/>
       <c r="X158" s="10"/>
     </row>
     <row r="159" spans="1:24" ht="15.75" thickBot="1">
       <c r="A159" s="8"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="66"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="63"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="63"/>
-      <c r="I159" s="64"/>
-      <c r="J159" s="65"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="68"/>
+      <c r="J159" s="69"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="63"/>
-      <c r="M159" s="64"/>
-      <c r="N159" s="64"/>
-      <c r="O159" s="64"/>
-      <c r="P159" s="64"/>
-      <c r="Q159" s="64"/>
-      <c r="R159" s="64"/>
-      <c r="S159" s="64"/>
-      <c r="T159" s="65"/>
+      <c r="L159" s="67"/>
+      <c r="M159" s="68"/>
+      <c r="N159" s="68"/>
+      <c r="O159" s="68"/>
+      <c r="P159" s="68"/>
+      <c r="Q159" s="68"/>
+      <c r="R159" s="68"/>
+      <c r="S159" s="68"/>
+      <c r="T159" s="69"/>
       <c r="X159" s="10"/>
     </row>
     <row r="160" spans="1:24">
@@ -7786,7 +7726,7 @@
     <row r="161" spans="1:24">
       <c r="A161" s="8"/>
       <c r="C161" s="40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="X161" s="10"/>
     </row>
@@ -7817,112 +7757,112 @@
       <c r="X162" s="13"/>
     </row>
     <row r="163" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A163" s="81" t="s">
+      <c r="A163" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="81"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="81"/>
-      <c r="E163" s="66" t="s">
+      <c r="B163" s="74"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66" t="s">
+      <c r="F163" s="63"/>
+      <c r="G163" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="66"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="82" t="s">
+      <c r="H163" s="63"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K163" s="82"/>
-      <c r="L163" s="66" t="s">
+      <c r="K163" s="62"/>
+      <c r="L163" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M163" s="66"/>
-      <c r="N163" s="66"/>
-      <c r="O163" s="66"/>
-      <c r="P163" s="82" t="s">
+      <c r="M163" s="63"/>
+      <c r="N163" s="63"/>
+      <c r="O163" s="63"/>
+      <c r="P163" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q163" s="82"/>
-      <c r="R163" s="66" t="s">
+      <c r="Q163" s="62"/>
+      <c r="R163" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S163" s="66"/>
-      <c r="T163" s="66"/>
-      <c r="U163" s="83" t="s">
+      <c r="S163" s="63"/>
+      <c r="T163" s="63"/>
+      <c r="U163" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V163" s="83"/>
-      <c r="W163" s="94">
+      <c r="V163" s="65"/>
+      <c r="W163" s="66">
         <v>45026</v>
       </c>
-      <c r="X163" s="88"/>
+      <c r="X163" s="64"/>
     </row>
     <row r="164" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A164" s="81"/>
-      <c r="B164" s="81"/>
-      <c r="C164" s="81"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="66"/>
-      <c r="G164" s="66"/>
-      <c r="H164" s="66"/>
-      <c r="I164" s="66"/>
-      <c r="J164" s="82"/>
-      <c r="K164" s="82"/>
-      <c r="L164" s="66"/>
-      <c r="M164" s="66"/>
-      <c r="N164" s="66"/>
-      <c r="O164" s="66"/>
-      <c r="P164" s="82" t="s">
+      <c r="A164" s="74"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="63"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="63"/>
+      <c r="J164" s="62"/>
+      <c r="K164" s="62"/>
+      <c r="L164" s="63"/>
+      <c r="M164" s="63"/>
+      <c r="N164" s="63"/>
+      <c r="O164" s="63"/>
+      <c r="P164" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q164" s="82"/>
-      <c r="R164" s="88"/>
-      <c r="S164" s="88"/>
-      <c r="T164" s="88"/>
-      <c r="U164" s="83" t="s">
+      <c r="Q164" s="62"/>
+      <c r="R164" s="64"/>
+      <c r="S164" s="64"/>
+      <c r="T164" s="64"/>
+      <c r="U164" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V164" s="83"/>
-      <c r="W164" s="88"/>
-      <c r="X164" s="88"/>
+      <c r="V164" s="65"/>
+      <c r="W164" s="64"/>
+      <c r="X164" s="64"/>
     </row>
     <row r="165" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A165" s="81"/>
-      <c r="B165" s="81"/>
-      <c r="C165" s="81"/>
-      <c r="D165" s="81"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="66"/>
-      <c r="G165" s="66"/>
-      <c r="H165" s="66"/>
-      <c r="I165" s="66"/>
-      <c r="J165" s="82" t="s">
+      <c r="A165" s="74"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="63"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K165" s="82"/>
-      <c r="L165" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M165" s="88"/>
-      <c r="N165" s="88"/>
-      <c r="O165" s="88"/>
-      <c r="P165" s="83" t="s">
+      <c r="K165" s="62"/>
+      <c r="L165" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M165" s="64"/>
+      <c r="N165" s="64"/>
+      <c r="O165" s="64"/>
+      <c r="P165" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q165" s="83"/>
-      <c r="R165" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S165" s="88"/>
-      <c r="T165" s="88"/>
-      <c r="U165" s="88"/>
-      <c r="V165" s="88"/>
-      <c r="W165" s="88"/>
-      <c r="X165" s="88"/>
+      <c r="Q165" s="65"/>
+      <c r="R165" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S165" s="64"/>
+      <c r="T165" s="64"/>
+      <c r="U165" s="64"/>
+      <c r="V165" s="64"/>
+      <c r="W165" s="64"/>
+      <c r="X165" s="64"/>
     </row>
     <row r="166" spans="1:24">
       <c r="A166" s="14"/>
@@ -8121,112 +8061,112 @@
       <c r="X203" s="13"/>
     </row>
     <row r="204" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A204" s="81" t="s">
+      <c r="A204" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="81"/>
-      <c r="C204" s="81"/>
-      <c r="D204" s="81"/>
-      <c r="E204" s="66" t="s">
+      <c r="B204" s="74"/>
+      <c r="C204" s="74"/>
+      <c r="D204" s="74"/>
+      <c r="E204" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F204" s="66"/>
-      <c r="G204" s="66" t="s">
+      <c r="F204" s="63"/>
+      <c r="G204" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H204" s="66"/>
-      <c r="I204" s="66"/>
-      <c r="J204" s="82" t="s">
+      <c r="H204" s="63"/>
+      <c r="I204" s="63"/>
+      <c r="J204" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K204" s="82"/>
-      <c r="L204" s="66" t="s">
+      <c r="K204" s="62"/>
+      <c r="L204" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M204" s="66"/>
-      <c r="N204" s="66"/>
-      <c r="O204" s="66"/>
-      <c r="P204" s="82" t="s">
+      <c r="M204" s="63"/>
+      <c r="N204" s="63"/>
+      <c r="O204" s="63"/>
+      <c r="P204" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q204" s="82"/>
-      <c r="R204" s="66" t="s">
+      <c r="Q204" s="62"/>
+      <c r="R204" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S204" s="66"/>
-      <c r="T204" s="66"/>
-      <c r="U204" s="83" t="s">
+      <c r="S204" s="63"/>
+      <c r="T204" s="63"/>
+      <c r="U204" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V204" s="83"/>
-      <c r="W204" s="94">
+      <c r="V204" s="65"/>
+      <c r="W204" s="66">
         <v>45026</v>
       </c>
-      <c r="X204" s="88"/>
+      <c r="X204" s="64"/>
     </row>
     <row r="205" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A205" s="81"/>
-      <c r="B205" s="81"/>
-      <c r="C205" s="81"/>
-      <c r="D205" s="81"/>
-      <c r="E205" s="66"/>
-      <c r="F205" s="66"/>
-      <c r="G205" s="66"/>
-      <c r="H205" s="66"/>
-      <c r="I205" s="66"/>
-      <c r="J205" s="82"/>
-      <c r="K205" s="82"/>
-      <c r="L205" s="66"/>
-      <c r="M205" s="66"/>
-      <c r="N205" s="66"/>
-      <c r="O205" s="66"/>
-      <c r="P205" s="82" t="s">
+      <c r="A205" s="74"/>
+      <c r="B205" s="74"/>
+      <c r="C205" s="74"/>
+      <c r="D205" s="74"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="63"/>
+      <c r="G205" s="63"/>
+      <c r="H205" s="63"/>
+      <c r="I205" s="63"/>
+      <c r="J205" s="62"/>
+      <c r="K205" s="62"/>
+      <c r="L205" s="63"/>
+      <c r="M205" s="63"/>
+      <c r="N205" s="63"/>
+      <c r="O205" s="63"/>
+      <c r="P205" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q205" s="82"/>
-      <c r="R205" s="88"/>
-      <c r="S205" s="88"/>
-      <c r="T205" s="88"/>
-      <c r="U205" s="83" t="s">
+      <c r="Q205" s="62"/>
+      <c r="R205" s="64"/>
+      <c r="S205" s="64"/>
+      <c r="T205" s="64"/>
+      <c r="U205" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V205" s="83"/>
-      <c r="W205" s="88"/>
-      <c r="X205" s="88"/>
+      <c r="V205" s="65"/>
+      <c r="W205" s="64"/>
+      <c r="X205" s="64"/>
     </row>
     <row r="206" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A206" s="81"/>
-      <c r="B206" s="81"/>
-      <c r="C206" s="81"/>
-      <c r="D206" s="81"/>
-      <c r="E206" s="66"/>
-      <c r="F206" s="66"/>
-      <c r="G206" s="66"/>
-      <c r="H206" s="66"/>
-      <c r="I206" s="66"/>
-      <c r="J206" s="82" t="s">
+      <c r="A206" s="74"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="63"/>
+      <c r="H206" s="63"/>
+      <c r="I206" s="63"/>
+      <c r="J206" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K206" s="82"/>
-      <c r="L206" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M206" s="88"/>
-      <c r="N206" s="88"/>
-      <c r="O206" s="88"/>
-      <c r="P206" s="83" t="s">
+      <c r="K206" s="62"/>
+      <c r="L206" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M206" s="64"/>
+      <c r="N206" s="64"/>
+      <c r="O206" s="64"/>
+      <c r="P206" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q206" s="83"/>
-      <c r="R206" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S206" s="88"/>
-      <c r="T206" s="88"/>
-      <c r="U206" s="88"/>
-      <c r="V206" s="88"/>
-      <c r="W206" s="88"/>
-      <c r="X206" s="88"/>
+      <c r="Q206" s="65"/>
+      <c r="R206" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S206" s="64"/>
+      <c r="T206" s="64"/>
+      <c r="U206" s="64"/>
+      <c r="V206" s="64"/>
+      <c r="W206" s="64"/>
+      <c r="X206" s="64"/>
     </row>
     <row r="207" spans="1:24">
       <c r="A207" s="14"/>
@@ -8426,20 +8366,249 @@
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="L204:O205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:X206"/>
-    <mergeCell ref="W204:X204"/>
-    <mergeCell ref="P205:Q205"/>
-    <mergeCell ref="R205:T205"/>
-    <mergeCell ref="U205:V205"/>
-    <mergeCell ref="W205:X205"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="R204:T204"/>
-    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L153:T153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:T154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:T155"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:T159"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:J148"/>
+    <mergeCell ref="L148:T148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="L149:T149"/>
+    <mergeCell ref="A81:D83"/>
+    <mergeCell ref="E81:F83"/>
+    <mergeCell ref="G81:I83"/>
+    <mergeCell ref="J81:K82"/>
+    <mergeCell ref="L81:O82"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="A122:D124"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:I124"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:E76"/>
+    <mergeCell ref="F75:K76"/>
+    <mergeCell ref="L75:N76"/>
+    <mergeCell ref="O75:P76"/>
+    <mergeCell ref="Q75:R76"/>
+    <mergeCell ref="S75:T76"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L77:N78"/>
+    <mergeCell ref="O77:P78"/>
+    <mergeCell ref="Q77:R78"/>
+    <mergeCell ref="S77:T78"/>
+    <mergeCell ref="U77:V78"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:K72"/>
+    <mergeCell ref="L71:N72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="S71:T72"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="F73:K74"/>
+    <mergeCell ref="L73:N74"/>
+    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="S73:T74"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="F67:K68"/>
+    <mergeCell ref="L67:N68"/>
+    <mergeCell ref="O67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="S67:T68"/>
+    <mergeCell ref="U67:V68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="F69:K70"/>
+    <mergeCell ref="L69:N70"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="S69:T70"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="F63:K64"/>
+    <mergeCell ref="L63:N64"/>
+    <mergeCell ref="O63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:E66"/>
+    <mergeCell ref="F65:K66"/>
+    <mergeCell ref="L65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:K60"/>
+    <mergeCell ref="L59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="C55:E56"/>
+    <mergeCell ref="F55:K56"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A4:X12"/>
+    <mergeCell ref="G13:S17"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="A40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:I42"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="L40:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:X42"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="U49:V50"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:X83"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E52"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="F53:K54"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="E204:F206"/>
+    <mergeCell ref="G204:I206"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:T150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="L151:T151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="L152:T152"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:T158"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="A163:D165"/>
+    <mergeCell ref="E163:F165"/>
+    <mergeCell ref="G163:I165"/>
+    <mergeCell ref="J163:K164"/>
+    <mergeCell ref="L163:O164"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="R163:T163"/>
+    <mergeCell ref="U163:V163"/>
+    <mergeCell ref="W163:X163"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:T164"/>
+    <mergeCell ref="U164:V164"/>
+    <mergeCell ref="W164:X164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:X165"/>
     <mergeCell ref="J124:K124"/>
     <mergeCell ref="L124:O124"/>
     <mergeCell ref="P124:Q124"/>
@@ -8464,249 +8633,20 @@
     <mergeCell ref="C49:E50"/>
     <mergeCell ref="F49:K50"/>
     <mergeCell ref="L49:N50"/>
-    <mergeCell ref="A163:D165"/>
-    <mergeCell ref="E163:F165"/>
-    <mergeCell ref="G163:I165"/>
-    <mergeCell ref="J163:K164"/>
-    <mergeCell ref="L163:O164"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="R163:T163"/>
-    <mergeCell ref="U163:V163"/>
-    <mergeCell ref="W163:X163"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:T164"/>
-    <mergeCell ref="U164:V164"/>
-    <mergeCell ref="W164:X164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:X165"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="E204:F206"/>
-    <mergeCell ref="G204:I206"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:T150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="L151:T151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="L152:T152"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:T158"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:X83"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E52"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="F53:K54"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="A40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:I42"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="L40:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:X42"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="A4:X12"/>
-    <mergeCell ref="G13:S17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="F55:K56"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:K60"/>
-    <mergeCell ref="L59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:V60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:N62"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="S61:T62"/>
-    <mergeCell ref="U61:V62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="F63:K64"/>
-    <mergeCell ref="L63:N64"/>
-    <mergeCell ref="O63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="S63:T64"/>
-    <mergeCell ref="U63:V64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:E66"/>
-    <mergeCell ref="F65:K66"/>
-    <mergeCell ref="L65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="S65:T66"/>
-    <mergeCell ref="U65:V66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="F67:K68"/>
-    <mergeCell ref="L67:N68"/>
-    <mergeCell ref="O67:P68"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="S67:T68"/>
-    <mergeCell ref="U67:V68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="F69:K70"/>
-    <mergeCell ref="L69:N70"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="S69:T70"/>
-    <mergeCell ref="U69:V70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:K72"/>
-    <mergeCell ref="L71:N72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="S71:T72"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="F73:K74"/>
-    <mergeCell ref="L73:N74"/>
-    <mergeCell ref="O73:P74"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="S73:T74"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="S75:T76"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L77:N78"/>
-    <mergeCell ref="O77:P78"/>
-    <mergeCell ref="Q77:R78"/>
-    <mergeCell ref="S77:T78"/>
-    <mergeCell ref="U77:V78"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:J148"/>
-    <mergeCell ref="L148:T148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="L149:T149"/>
-    <mergeCell ref="A81:D83"/>
-    <mergeCell ref="E81:F83"/>
-    <mergeCell ref="G81:I83"/>
-    <mergeCell ref="J81:K82"/>
-    <mergeCell ref="L81:O82"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="A122:D124"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:I124"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:E76"/>
-    <mergeCell ref="F75:K76"/>
-    <mergeCell ref="L75:N76"/>
-    <mergeCell ref="O75:P76"/>
-    <mergeCell ref="Q75:R76"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L153:T153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:T154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:T155"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:T159"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="L204:O205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:X206"/>
+    <mergeCell ref="W204:X204"/>
+    <mergeCell ref="P205:Q205"/>
+    <mergeCell ref="R205:T205"/>
+    <mergeCell ref="U205:V205"/>
+    <mergeCell ref="W205:X205"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="R204:T204"/>
+    <mergeCell ref="U204:V204"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -8718,8 +8658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7BAF47-5540-452B-A5E0-0183B26E9959}">
   <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A134" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139:V143"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A128" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8728,112 +8668,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="66" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="82" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="82" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="66" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="83" t="s">
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="83"/>
-      <c r="W1" s="94">
+      <c r="V1" s="65"/>
+      <c r="W1" s="66">
         <v>45026</v>
       </c>
-      <c r="X1" s="88"/>
+      <c r="X1" s="64"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="82" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="83" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="82" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="83" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="14"/>
@@ -9009,112 +8949,112 @@
       <c r="X40" s="10"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="66" t="s">
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66" t="s">
+      <c r="F41" s="63"/>
+      <c r="G41" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="82" t="s">
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="82"/>
-      <c r="L41" s="66" t="s">
+      <c r="K41" s="62"/>
+      <c r="L41" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="82" t="s">
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="66" t="s">
+      <c r="Q41" s="62"/>
+      <c r="R41" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="83" t="s">
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V41" s="83"/>
-      <c r="W41" s="94">
+      <c r="V41" s="65"/>
+      <c r="W41" s="66">
         <v>45026</v>
       </c>
-      <c r="X41" s="88"/>
+      <c r="X41" s="64"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="82" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="83" t="s">
+      <c r="Q42" s="62"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="83"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="82" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="82"/>
-      <c r="L43" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="83" t="s">
+      <c r="K43" s="62"/>
+      <c r="L43" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="14"/>
@@ -9165,79 +9105,79 @@
       <c r="B48" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="103" t="s">
+      <c r="C48" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="102" t="s">
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103" t="s">
+      <c r="G48" s="97"/>
+      <c r="H48" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103" t="s">
+      <c r="I48" s="98"/>
+      <c r="J48" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="103"/>
+      <c r="K48" s="98"/>
       <c r="L48" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="102" t="s">
+      <c r="M48" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="N48" s="102"/>
-      <c r="O48" s="103" t="s">
+      <c r="N48" s="97"/>
+      <c r="O48" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="103" t="s">
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="R48" s="103"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="103"/>
-      <c r="U48" s="103"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="98"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="98"/>
       <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="8"/>
-      <c r="B49" s="62">
+      <c r="B49" s="61">
         <v>1</v>
       </c>
-      <c r="C49" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="101" t="s">
+      <c r="C49" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101">
+      <c r="G49" s="100"/>
+      <c r="H49" s="100">
         <v>50</v>
       </c>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="101"/>
-      <c r="L49" s="62" t="s">
+      <c r="I49" s="100"/>
+      <c r="J49" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49" s="100"/>
+      <c r="L49" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="M49" s="101" t="s">
+      <c r="M49" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="N49" s="101"/>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
-      <c r="U49" s="101"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="100"/>
+      <c r="R49" s="100"/>
+      <c r="S49" s="100"/>
+      <c r="T49" s="100"/>
+      <c r="U49" s="100"/>
       <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24">
@@ -9288,29 +9228,29 @@
       <c r="B53" s="44">
         <v>1</v>
       </c>
-      <c r="C53" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="99" t="s">
+      <c r="C53" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="102"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="102"/>
+      <c r="U53" s="102"/>
       <c r="X53" s="10"/>
     </row>
     <row r="54" spans="1:24">
@@ -9318,29 +9258,29 @@
       <c r="B54" s="45">
         <v>2</v>
       </c>
-      <c r="C54" s="156" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="157" t="s">
-        <v>109</v>
-      </c>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="157"/>
-      <c r="R54" s="157"/>
-      <c r="S54" s="157"/>
-      <c r="T54" s="157"/>
-      <c r="U54" s="157"/>
+      <c r="C54" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
       <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24">
@@ -9348,31 +9288,31 @@
       <c r="B55" s="46">
         <v>3</v>
       </c>
-      <c r="C55" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="154"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="155" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" s="155"/>
-      <c r="K55" s="155"/>
-      <c r="L55" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="M55" s="155"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="155"/>
-      <c r="Q55" s="155"/>
-      <c r="R55" s="155"/>
-      <c r="S55" s="155"/>
-      <c r="T55" s="155"/>
-      <c r="U55" s="155"/>
+      <c r="C55" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="107"/>
+      <c r="U55" s="107"/>
       <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24">
@@ -9382,7 +9322,7 @@
     <row r="57" spans="1:24">
       <c r="A57" s="8"/>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="X57" s="10"/>
     </row>
@@ -9391,41 +9331,41 @@
       <c r="B58" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="103" t="s">
+      <c r="C58" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="102" t="s">
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103" t="s">
+      <c r="G58" s="97"/>
+      <c r="H58" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103" t="s">
+      <c r="I58" s="98"/>
+      <c r="J58" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="103"/>
+      <c r="K58" s="98"/>
       <c r="L58" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="102" t="s">
+      <c r="M58" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="N58" s="102"/>
-      <c r="O58" s="103" t="s">
+      <c r="N58" s="97"/>
+      <c r="O58" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="103" t="s">
+      <c r="P58" s="98"/>
+      <c r="Q58" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="R58" s="103"/>
-      <c r="S58" s="103"/>
-      <c r="T58" s="103"/>
-      <c r="U58" s="103"/>
+      <c r="R58" s="98"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="98"/>
+      <c r="U58" s="98"/>
       <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24">
@@ -9433,37 +9373,37 @@
       <c r="B59" s="44">
         <v>1</v>
       </c>
-      <c r="C59" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="99" t="s">
+      <c r="C59" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99">
+      <c r="G59" s="102"/>
+      <c r="H59" s="102">
         <v>10</v>
       </c>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K59" s="99"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K59" s="102"/>
       <c r="L59" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M59" s="99" t="s">
+      <c r="M59" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="99"/>
-      <c r="T59" s="99"/>
-      <c r="U59" s="99"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="102"/>
+      <c r="S59" s="102"/>
+      <c r="T59" s="102"/>
+      <c r="U59" s="102"/>
       <c r="X59" s="10"/>
     </row>
     <row r="60" spans="1:24">
@@ -9471,37 +9411,37 @@
       <c r="B60" s="44">
         <v>2</v>
       </c>
-      <c r="C60" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99">
+      <c r="G60" s="102"/>
+      <c r="H60" s="102">
         <v>50</v>
       </c>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K60" s="99"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" s="102"/>
       <c r="L60" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="99" t="s">
+      <c r="M60" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="102"/>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="102"/>
+      <c r="R60" s="102"/>
+      <c r="S60" s="102"/>
+      <c r="T60" s="102"/>
+      <c r="U60" s="102"/>
       <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24">
@@ -9509,37 +9449,37 @@
       <c r="B61" s="44">
         <v>3</v>
       </c>
-      <c r="C61" s="98" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="99" t="s">
+      <c r="C61" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99">
+      <c r="G61" s="102"/>
+      <c r="H61" s="102">
         <v>100</v>
       </c>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="99"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" s="102"/>
       <c r="L61" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M61" s="99" t="s">
+      <c r="M61" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="99"/>
-      <c r="U61" s="99"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="102"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="102"/>
+      <c r="S61" s="102"/>
+      <c r="T61" s="102"/>
+      <c r="U61" s="102"/>
       <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24">
@@ -9547,37 +9487,37 @@
       <c r="B62" s="44">
         <v>4</v>
       </c>
-      <c r="C62" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="99" t="s">
+      <c r="C62" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99">
+      <c r="G62" s="102"/>
+      <c r="H62" s="102">
         <v>10</v>
       </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K62" s="99"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" s="102"/>
       <c r="L62" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="99" t="s">
+      <c r="M62" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="99"/>
-      <c r="U62" s="99"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="102"/>
+      <c r="T62" s="102"/>
+      <c r="U62" s="102"/>
       <c r="X62" s="10"/>
     </row>
     <row r="63" spans="1:24">
@@ -9585,37 +9525,37 @@
       <c r="B63" s="44">
         <v>5</v>
       </c>
-      <c r="C63" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="99" t="s">
+      <c r="C63" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99">
+      <c r="G63" s="102"/>
+      <c r="H63" s="102">
         <v>10</v>
       </c>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K63" s="99"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" s="102"/>
       <c r="L63" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M63" s="99" t="s">
+      <c r="M63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="102"/>
       <c r="X63" s="10"/>
     </row>
     <row r="64" spans="1:24">
@@ -9623,75 +9563,75 @@
       <c r="B64" s="44">
         <v>6</v>
       </c>
-      <c r="C64" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="99" t="s">
+      <c r="C64" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99">
+      <c r="G64" s="102"/>
+      <c r="H64" s="102">
         <v>50</v>
       </c>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K64" s="99"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64" s="102"/>
       <c r="L64" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="99" t="s">
+      <c r="M64" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N64" s="99"/>
-      <c r="O64" s="99"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="102"/>
+      <c r="T64" s="102"/>
+      <c r="U64" s="102"/>
       <c r="X64" s="10"/>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="8"/>
-      <c r="B65" s="62">
+      <c r="B65" s="61">
         <v>7</v>
       </c>
-      <c r="C65" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="101" t="s">
+      <c r="C65" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101">
+      <c r="G65" s="100"/>
+      <c r="H65" s="100">
         <v>20</v>
       </c>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="K65" s="101"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="100"/>
       <c r="L65" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M65" s="101" t="s">
+      <c r="M65" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="N65" s="101"/>
-      <c r="O65" s="101"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="101"/>
-      <c r="T65" s="101"/>
-      <c r="U65" s="101"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="100"/>
+      <c r="P65" s="100"/>
+      <c r="Q65" s="100"/>
+      <c r="R65" s="100"/>
+      <c r="S65" s="100"/>
+      <c r="T65" s="100"/>
+      <c r="U65" s="100"/>
       <c r="X65" s="10"/>
     </row>
     <row r="66" spans="1:24">
@@ -9755,112 +9695,112 @@
       <c r="X80" s="10"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="66" t="s">
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66" t="s">
+      <c r="F81" s="63"/>
+      <c r="G81" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="82" t="s">
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="82"/>
-      <c r="L81" s="66" t="s">
+      <c r="K81" s="62"/>
+      <c r="L81" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="82" t="s">
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q81" s="82"/>
-      <c r="R81" s="66" t="s">
+      <c r="Q81" s="62"/>
+      <c r="R81" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="83" t="s">
+      <c r="S81" s="63"/>
+      <c r="T81" s="63"/>
+      <c r="U81" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="83"/>
-      <c r="W81" s="94">
+      <c r="V81" s="65"/>
+      <c r="W81" s="66">
         <v>45026</v>
       </c>
-      <c r="X81" s="88"/>
+      <c r="X81" s="64"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A82" s="81"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="82"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="82" t="s">
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="82"/>
-      <c r="R82" s="88"/>
-      <c r="S82" s="88"/>
-      <c r="T82" s="88"/>
-      <c r="U82" s="83" t="s">
+      <c r="Q82" s="62"/>
+      <c r="R82" s="64"/>
+      <c r="S82" s="64"/>
+      <c r="T82" s="64"/>
+      <c r="U82" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="83"/>
-      <c r="W82" s="88"/>
-      <c r="X82" s="88"/>
+      <c r="V82" s="65"/>
+      <c r="W82" s="64"/>
+      <c r="X82" s="64"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A83" s="81"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="82" t="s">
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="82"/>
-      <c r="L83" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M83" s="88"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="88"/>
-      <c r="P83" s="83" t="s">
+      <c r="K83" s="62"/>
+      <c r="L83" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="S83" s="88"/>
-      <c r="T83" s="88"/>
-      <c r="U83" s="88"/>
-      <c r="V83" s="88"/>
-      <c r="W83" s="88"/>
-      <c r="X83" s="88"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S83" s="64"/>
+      <c r="T83" s="64"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="64"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="14"/>
@@ -9957,7 +9897,7 @@
       <c r="B87" s="48"/>
       <c r="C87" s="27"/>
       <c r="D87" s="28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -10018,7 +9958,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="48"/>
       <c r="C89" s="27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
@@ -10051,7 +9991,7 @@
       <c r="B90" s="48"/>
       <c r="C90" s="27"/>
       <c r="D90" s="28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -10083,7 +10023,7 @@
       <c r="B91" s="48"/>
       <c r="C91" s="27"/>
       <c r="D91" s="28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -10115,7 +10055,7 @@
       <c r="B92" s="48"/>
       <c r="C92" s="27"/>
       <c r="D92" s="28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -10176,7 +10116,7 @@
       <c r="A94" s="8"/>
       <c r="B94" s="48"/>
       <c r="C94" s="27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
@@ -10209,7 +10149,7 @@
       <c r="B95" s="48"/>
       <c r="C95" s="27"/>
       <c r="D95" s="28" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -10299,7 +10239,7 @@
     <row r="98" spans="1:28">
       <c r="A98" s="8"/>
       <c r="C98" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D98" s="28"/>
       <c r="X98" s="10"/>
@@ -10307,7 +10247,7 @@
     <row r="99" spans="1:28">
       <c r="A99" s="8"/>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X99" s="10"/>
     </row>
@@ -10318,21 +10258,21 @@
     <row r="101" spans="1:28">
       <c r="A101" s="8"/>
       <c r="C101" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X101" s="10"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="8"/>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X102" s="10"/>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="8"/>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X103" s="10"/>
     </row>
@@ -10431,112 +10371,112 @@
       <c r="X121" s="13"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="126" t="s">
+      <c r="A122" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="127"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="128"/>
-      <c r="E122" s="135" t="s">
+      <c r="B122" s="109"/>
+      <c r="C122" s="109"/>
+      <c r="D122" s="110"/>
+      <c r="E122" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="136"/>
-      <c r="G122" s="135" t="s">
+      <c r="F122" s="118"/>
+      <c r="G122" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="141"/>
-      <c r="I122" s="136"/>
-      <c r="J122" s="143" t="s">
+      <c r="H122" s="123"/>
+      <c r="I122" s="118"/>
+      <c r="J122" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="144"/>
-      <c r="L122" s="135" t="s">
+      <c r="K122" s="127"/>
+      <c r="L122" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="141"/>
-      <c r="N122" s="141"/>
-      <c r="O122" s="136"/>
-      <c r="P122" s="147" t="s">
+      <c r="M122" s="123"/>
+      <c r="N122" s="123"/>
+      <c r="O122" s="118"/>
+      <c r="P122" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="148"/>
-      <c r="R122" s="149" t="s">
+      <c r="Q122" s="131"/>
+      <c r="R122" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="S122" s="150"/>
-      <c r="T122" s="151"/>
-      <c r="U122" s="124" t="s">
+      <c r="S122" s="133"/>
+      <c r="T122" s="134"/>
+      <c r="U122" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="V122" s="125"/>
-      <c r="W122" s="152">
+      <c r="V122" s="136"/>
+      <c r="W122" s="137">
         <v>45026</v>
       </c>
-      <c r="X122" s="153"/>
+      <c r="X122" s="138"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="129"/>
-      <c r="B123" s="130"/>
-      <c r="C123" s="130"/>
-      <c r="D123" s="131"/>
-      <c r="E123" s="137"/>
-      <c r="F123" s="138"/>
-      <c r="G123" s="137"/>
-      <c r="H123" s="111"/>
-      <c r="I123" s="138"/>
-      <c r="J123" s="145"/>
-      <c r="K123" s="146"/>
-      <c r="L123" s="139"/>
-      <c r="M123" s="142"/>
-      <c r="N123" s="142"/>
-      <c r="O123" s="140"/>
-      <c r="P123" s="147" t="s">
+      <c r="A123" s="111"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="119"/>
+      <c r="F123" s="120"/>
+      <c r="G123" s="119"/>
+      <c r="H123" s="124"/>
+      <c r="I123" s="120"/>
+      <c r="J123" s="128"/>
+      <c r="K123" s="129"/>
+      <c r="L123" s="121"/>
+      <c r="M123" s="125"/>
+      <c r="N123" s="125"/>
+      <c r="O123" s="122"/>
+      <c r="P123" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="Q123" s="148"/>
-      <c r="R123" s="121"/>
-      <c r="S123" s="122"/>
-      <c r="T123" s="123"/>
-      <c r="U123" s="124" t="s">
+      <c r="Q123" s="131"/>
+      <c r="R123" s="139"/>
+      <c r="S123" s="140"/>
+      <c r="T123" s="141"/>
+      <c r="U123" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="V123" s="125"/>
-      <c r="W123" s="121"/>
-      <c r="X123" s="123"/>
+      <c r="V123" s="136"/>
+      <c r="W123" s="139"/>
+      <c r="X123" s="141"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="132"/>
-      <c r="B124" s="133"/>
-      <c r="C124" s="133"/>
-      <c r="D124" s="134"/>
-      <c r="E124" s="139"/>
-      <c r="F124" s="140"/>
-      <c r="G124" s="139"/>
-      <c r="H124" s="142"/>
-      <c r="I124" s="140"/>
-      <c r="J124" s="147" t="s">
+      <c r="A124" s="114"/>
+      <c r="B124" s="115"/>
+      <c r="C124" s="115"/>
+      <c r="D124" s="116"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="125"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="148"/>
-      <c r="L124" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="M124" s="122"/>
-      <c r="N124" s="122"/>
-      <c r="O124" s="123"/>
-      <c r="P124" s="124" t="s">
+      <c r="K124" s="131"/>
+      <c r="L124" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="M124" s="140"/>
+      <c r="N124" s="140"/>
+      <c r="O124" s="141"/>
+      <c r="P124" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="125"/>
-      <c r="R124" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="S124" s="122"/>
-      <c r="T124" s="122"/>
-      <c r="U124" s="122"/>
-      <c r="V124" s="122"/>
-      <c r="W124" s="122"/>
-      <c r="X124" s="123"/>
+      <c r="Q124" s="136"/>
+      <c r="R124" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="S124" s="140"/>
+      <c r="T124" s="140"/>
+      <c r="U124" s="140"/>
+      <c r="V124" s="140"/>
+      <c r="W124" s="140"/>
+      <c r="X124" s="141"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="49"/>
@@ -10699,8 +10639,6 @@
       <c r="T130" s="50"/>
       <c r="U130" s="50"/>
       <c r="V130" s="50"/>
-      <c r="W130" s="159"/>
-      <c r="X130" s="159"/>
     </row>
     <row r="131" spans="1:24">
       <c r="A131" s="49"/>
@@ -10737,8 +10675,6 @@
       </c>
       <c r="U131" s="105"/>
       <c r="V131" s="105"/>
-      <c r="W131" s="158"/>
-      <c r="X131" s="158"/>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" s="49"/>
@@ -10748,31 +10684,29 @@
       <c r="E132" s="55">
         <v>1</v>
       </c>
-      <c r="F132" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G132" s="100"/>
-      <c r="H132" s="100"/>
-      <c r="I132" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="J132" s="100"/>
-      <c r="K132" s="100"/>
-      <c r="L132" s="100"/>
-      <c r="M132" s="100"/>
-      <c r="N132" s="100"/>
-      <c r="O132" s="101"/>
-      <c r="P132" s="101"/>
-      <c r="Q132" s="101"/>
-      <c r="R132" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="S132" s="101"/>
-      <c r="T132" s="101"/>
-      <c r="U132" s="101"/>
-      <c r="V132" s="101"/>
-      <c r="W132" s="158"/>
-      <c r="X132" s="158"/>
+      <c r="F132" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
+      <c r="I132" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="J132" s="99"/>
+      <c r="K132" s="99"/>
+      <c r="L132" s="99"/>
+      <c r="M132" s="99"/>
+      <c r="N132" s="99"/>
+      <c r="O132" s="100"/>
+      <c r="P132" s="100"/>
+      <c r="Q132" s="100"/>
+      <c r="R132" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="S132" s="100"/>
+      <c r="T132" s="100"/>
+      <c r="U132" s="100"/>
+      <c r="V132" s="100"/>
     </row>
     <row r="133" spans="1:24">
       <c r="A133" s="49"/>
@@ -10782,31 +10716,29 @@
       <c r="E133" s="55">
         <v>2</v>
       </c>
-      <c r="F133" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G133" s="100"/>
-      <c r="H133" s="100"/>
-      <c r="I133" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="J133" s="100"/>
-      <c r="K133" s="100"/>
-      <c r="L133" s="100"/>
-      <c r="M133" s="100"/>
-      <c r="N133" s="100"/>
-      <c r="O133" s="101"/>
-      <c r="P133" s="101"/>
-      <c r="Q133" s="101"/>
-      <c r="R133" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="S133" s="101"/>
-      <c r="T133" s="101"/>
-      <c r="U133" s="101"/>
-      <c r="V133" s="101"/>
-      <c r="W133" s="158"/>
-      <c r="X133" s="158"/>
+      <c r="F133" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="G133" s="99"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="J133" s="99"/>
+      <c r="K133" s="99"/>
+      <c r="L133" s="99"/>
+      <c r="M133" s="99"/>
+      <c r="N133" s="99"/>
+      <c r="O133" s="100"/>
+      <c r="P133" s="100"/>
+      <c r="Q133" s="100"/>
+      <c r="R133" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="S133" s="100"/>
+      <c r="T133" s="100"/>
+      <c r="U133" s="100"/>
+      <c r="V133" s="100"/>
     </row>
     <row r="134" spans="1:24">
       <c r="A134" s="49"/>
@@ -10816,31 +10748,29 @@
       <c r="E134" s="55">
         <v>3</v>
       </c>
-      <c r="F134" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="G134" s="100"/>
-      <c r="H134" s="100"/>
-      <c r="I134" s="100" t="s">
-        <v>129</v>
-      </c>
-      <c r="J134" s="100"/>
-      <c r="K134" s="100"/>
-      <c r="L134" s="100"/>
-      <c r="M134" s="100"/>
-      <c r="N134" s="100"/>
-      <c r="O134" s="101"/>
-      <c r="P134" s="101"/>
-      <c r="Q134" s="101"/>
-      <c r="R134" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="S134" s="101"/>
-      <c r="T134" s="101"/>
-      <c r="U134" s="101"/>
-      <c r="V134" s="101"/>
-      <c r="W134" s="158"/>
-      <c r="X134" s="158"/>
+      <c r="F134" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="G134" s="99"/>
+      <c r="H134" s="99"/>
+      <c r="I134" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="J134" s="99"/>
+      <c r="K134" s="99"/>
+      <c r="L134" s="99"/>
+      <c r="M134" s="99"/>
+      <c r="N134" s="99"/>
+      <c r="O134" s="100"/>
+      <c r="P134" s="100"/>
+      <c r="Q134" s="100"/>
+      <c r="R134" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="S134" s="100"/>
+      <c r="T134" s="100"/>
+      <c r="U134" s="100"/>
+      <c r="V134" s="100"/>
     </row>
     <row r="135" spans="1:24">
       <c r="A135" s="49"/>
@@ -10854,7 +10784,7 @@
       <c r="A136" s="49"/>
       <c r="B136" s="50"/>
       <c r="C136" s="53" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D136" s="40"/>
       <c r="E136" s="56"/>
@@ -10883,7 +10813,7 @@
       <c r="B137" s="50"/>
       <c r="C137" s="52"/>
       <c r="D137" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E137" s="56"/>
       <c r="F137" s="40"/>
@@ -10911,7 +10841,7 @@
       <c r="B138" s="50"/>
       <c r="C138" s="52"/>
       <c r="D138" s="40" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E138" s="56"/>
       <c r="F138" s="40"/>
@@ -10939,26 +10869,26 @@
       <c r="B139" s="50"/>
       <c r="C139" s="52"/>
       <c r="D139" s="40"/>
-      <c r="E139" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="40"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="40"/>
-      <c r="N139" s="50"/>
-      <c r="O139" s="50"/>
-      <c r="P139" s="50"/>
-      <c r="Q139" s="50"/>
-      <c r="R139" s="50"/>
-      <c r="S139" s="50"/>
-      <c r="T139" s="50"/>
-      <c r="U139" s="50"/>
-      <c r="V139" s="50"/>
+      <c r="E139" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="F139" s="152"/>
+      <c r="G139" s="152"/>
+      <c r="H139" s="152"/>
+      <c r="I139" s="152"/>
+      <c r="J139" s="152"/>
+      <c r="K139" s="152"/>
+      <c r="L139" s="152"/>
+      <c r="M139" s="152"/>
+      <c r="N139" s="153"/>
+      <c r="O139" s="153"/>
+      <c r="P139" s="153"/>
+      <c r="Q139" s="153"/>
+      <c r="R139" s="153"/>
+      <c r="S139" s="153"/>
+      <c r="T139" s="153"/>
+      <c r="U139" s="153"/>
+      <c r="V139" s="153"/>
       <c r="W139" s="50"/>
       <c r="X139" s="51"/>
     </row>
@@ -10967,32 +10897,24 @@
       <c r="B140" s="50"/>
       <c r="C140" s="50"/>
       <c r="D140" s="50"/>
-      <c r="E140" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="F140" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="G140" s="104"/>
-      <c r="H140" s="104"/>
-      <c r="I140" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="J140" s="119"/>
-      <c r="K140" s="119"/>
-      <c r="L140" s="119"/>
-      <c r="M140" s="119"/>
-      <c r="N140" s="119"/>
-      <c r="O140" s="119"/>
-      <c r="P140" s="119"/>
-      <c r="Q140" s="120"/>
-      <c r="R140" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="S140" s="119"/>
-      <c r="T140" s="119"/>
-      <c r="U140" s="119"/>
-      <c r="V140" s="120"/>
+      <c r="E140" s="154"/>
+      <c r="F140" s="156"/>
+      <c r="G140" s="156"/>
+      <c r="H140" s="156"/>
+      <c r="I140" s="156"/>
+      <c r="J140" s="156"/>
+      <c r="K140" s="156"/>
+      <c r="L140" s="156"/>
+      <c r="M140" s="156"/>
+      <c r="N140" s="156"/>
+      <c r="O140" s="156"/>
+      <c r="P140" s="156"/>
+      <c r="Q140" s="156"/>
+      <c r="R140" s="156"/>
+      <c r="S140" s="156"/>
+      <c r="T140" s="156"/>
+      <c r="U140" s="156"/>
+      <c r="V140" s="156"/>
       <c r="W140" s="50"/>
       <c r="X140" s="51"/>
     </row>
@@ -11000,32 +10922,24 @@
       <c r="A141" s="49"/>
       <c r="C141" s="50"/>
       <c r="D141" s="50"/>
-      <c r="E141" s="55">
-        <v>1</v>
-      </c>
-      <c r="F141" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="G141" s="100"/>
-      <c r="H141" s="100"/>
-      <c r="I141" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="J141" s="116"/>
-      <c r="K141" s="116"/>
-      <c r="L141" s="116"/>
-      <c r="M141" s="116"/>
-      <c r="N141" s="116"/>
-      <c r="O141" s="116"/>
-      <c r="P141" s="116"/>
-      <c r="Q141" s="117"/>
-      <c r="R141" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="S141" s="116"/>
-      <c r="T141" s="116"/>
-      <c r="U141" s="116"/>
-      <c r="V141" s="117"/>
+      <c r="E141" s="155"/>
+      <c r="F141" s="156"/>
+      <c r="G141" s="156"/>
+      <c r="H141" s="156"/>
+      <c r="I141" s="156"/>
+      <c r="J141" s="156"/>
+      <c r="K141" s="156"/>
+      <c r="L141" s="156"/>
+      <c r="M141" s="156"/>
+      <c r="N141" s="156"/>
+      <c r="O141" s="156"/>
+      <c r="P141" s="156"/>
+      <c r="Q141" s="156"/>
+      <c r="R141" s="156"/>
+      <c r="S141" s="156"/>
+      <c r="T141" s="156"/>
+      <c r="U141" s="156"/>
+      <c r="V141" s="156"/>
       <c r="W141" s="50"/>
       <c r="X141" s="51"/>
     </row>
@@ -11033,32 +10947,24 @@
       <c r="A142" s="49"/>
       <c r="C142" s="50"/>
       <c r="D142" s="50"/>
-      <c r="E142" s="55">
-        <v>2</v>
-      </c>
-      <c r="F142" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="G142" s="100"/>
-      <c r="H142" s="100"/>
-      <c r="I142" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="J142" s="116"/>
-      <c r="K142" s="116"/>
-      <c r="L142" s="116"/>
-      <c r="M142" s="116"/>
-      <c r="N142" s="116"/>
-      <c r="O142" s="116"/>
-      <c r="P142" s="116"/>
-      <c r="Q142" s="117"/>
-      <c r="R142" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="S142" s="116"/>
-      <c r="T142" s="116"/>
-      <c r="U142" s="116"/>
-      <c r="V142" s="117"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="156"/>
+      <c r="G142" s="156"/>
+      <c r="H142" s="156"/>
+      <c r="I142" s="156"/>
+      <c r="J142" s="156"/>
+      <c r="K142" s="156"/>
+      <c r="L142" s="156"/>
+      <c r="M142" s="156"/>
+      <c r="N142" s="156"/>
+      <c r="O142" s="156"/>
+      <c r="P142" s="156"/>
+      <c r="Q142" s="156"/>
+      <c r="R142" s="156"/>
+      <c r="S142" s="156"/>
+      <c r="T142" s="156"/>
+      <c r="U142" s="156"/>
+      <c r="V142" s="156"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
     </row>
@@ -11066,32 +10972,24 @@
       <c r="A143" s="49"/>
       <c r="C143" s="50"/>
       <c r="D143" s="50"/>
-      <c r="E143" s="55">
-        <v>3</v>
-      </c>
-      <c r="F143" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="G143" s="100"/>
-      <c r="H143" s="100"/>
-      <c r="I143" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="J143" s="116"/>
-      <c r="K143" s="116"/>
-      <c r="L143" s="116"/>
-      <c r="M143" s="116"/>
-      <c r="N143" s="116"/>
-      <c r="O143" s="116"/>
-      <c r="P143" s="116"/>
-      <c r="Q143" s="117"/>
-      <c r="R143" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="S143" s="116"/>
-      <c r="T143" s="116"/>
-      <c r="U143" s="116"/>
-      <c r="V143" s="117"/>
+      <c r="E143" s="155"/>
+      <c r="F143" s="156"/>
+      <c r="G143" s="156"/>
+      <c r="H143" s="156"/>
+      <c r="I143" s="156"/>
+      <c r="J143" s="156"/>
+      <c r="K143" s="156"/>
+      <c r="L143" s="156"/>
+      <c r="M143" s="156"/>
+      <c r="N143" s="156"/>
+      <c r="O143" s="156"/>
+      <c r="P143" s="156"/>
+      <c r="Q143" s="156"/>
+      <c r="R143" s="156"/>
+      <c r="S143" s="156"/>
+      <c r="T143" s="156"/>
+      <c r="U143" s="156"/>
+      <c r="V143" s="156"/>
       <c r="W143" s="50"/>
       <c r="X143" s="51"/>
     </row>
@@ -11141,12 +11039,12 @@
     <row r="152" spans="1:24">
       <c r="A152" s="49"/>
       <c r="D152" s="40" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E152" s="57"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
       <c r="I152" s="50"/>
       <c r="J152" s="50"/>
       <c r="K152" s="50"/>
@@ -11191,110 +11089,110 @@
     <row r="154" spans="1:24">
       <c r="A154" s="49"/>
       <c r="D154" s="50"/>
-      <c r="E154" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="F154" s="113"/>
-      <c r="G154" s="113"/>
-      <c r="H154" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="I154" s="113"/>
-      <c r="J154" s="113"/>
-      <c r="K154" s="113"/>
-      <c r="L154" s="113"/>
-      <c r="M154" s="113"/>
-      <c r="N154" s="113"/>
-      <c r="O154" s="113"/>
-      <c r="P154" s="113"/>
-      <c r="Q154" s="113"/>
-      <c r="R154" s="113"/>
-      <c r="S154" s="113"/>
-      <c r="T154" s="113"/>
-      <c r="U154" s="113"/>
-      <c r="V154" s="113"/>
+      <c r="E154" s="149" t="s">
+        <v>67</v>
+      </c>
+      <c r="F154" s="149"/>
+      <c r="G154" s="149"/>
+      <c r="H154" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="I154" s="149"/>
+      <c r="J154" s="149"/>
+      <c r="K154" s="149"/>
+      <c r="L154" s="149"/>
+      <c r="M154" s="149"/>
+      <c r="N154" s="149"/>
+      <c r="O154" s="149"/>
+      <c r="P154" s="149"/>
+      <c r="Q154" s="149"/>
+      <c r="R154" s="149"/>
+      <c r="S154" s="149"/>
+      <c r="T154" s="149"/>
+      <c r="U154" s="149"/>
+      <c r="V154" s="149"/>
       <c r="W154" s="50"/>
       <c r="X154" s="51"/>
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="49"/>
-      <c r="E155" s="107" t="s">
+      <c r="E155" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="F155" s="108"/>
-      <c r="G155" s="109"/>
-      <c r="H155" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="I155" s="114"/>
-      <c r="J155" s="114"/>
-      <c r="K155" s="114"/>
-      <c r="L155" s="114"/>
-      <c r="M155" s="114"/>
-      <c r="N155" s="114"/>
-      <c r="O155" s="114"/>
-      <c r="P155" s="114"/>
-      <c r="Q155" s="114"/>
-      <c r="R155" s="114"/>
-      <c r="S155" s="114"/>
-      <c r="T155" s="114"/>
-      <c r="U155" s="114"/>
-      <c r="V155" s="114"/>
+      <c r="F155" s="145"/>
+      <c r="G155" s="146"/>
+      <c r="H155" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155" s="150"/>
+      <c r="J155" s="150"/>
+      <c r="K155" s="150"/>
+      <c r="L155" s="150"/>
+      <c r="M155" s="150"/>
+      <c r="N155" s="150"/>
+      <c r="O155" s="150"/>
+      <c r="P155" s="150"/>
+      <c r="Q155" s="150"/>
+      <c r="R155" s="150"/>
+      <c r="S155" s="150"/>
+      <c r="T155" s="150"/>
+      <c r="U155" s="150"/>
+      <c r="V155" s="150"/>
       <c r="W155" s="50"/>
       <c r="X155" s="51"/>
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="49"/>
-      <c r="E156" s="110"/>
-      <c r="F156" s="111"/>
-      <c r="G156" s="112"/>
-      <c r="H156" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="I156" s="106"/>
-      <c r="J156" s="106"/>
-      <c r="K156" s="106"/>
-      <c r="L156" s="106"/>
-      <c r="M156" s="106"/>
-      <c r="N156" s="106"/>
-      <c r="O156" s="106"/>
-      <c r="P156" s="106"/>
-      <c r="Q156" s="106"/>
-      <c r="R156" s="106"/>
-      <c r="S156" s="106"/>
-      <c r="T156" s="106"/>
-      <c r="U156" s="106"/>
-      <c r="V156" s="106"/>
+      <c r="E156" s="147"/>
+      <c r="F156" s="124"/>
+      <c r="G156" s="148"/>
+      <c r="H156" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156" s="143"/>
+      <c r="J156" s="143"/>
+      <c r="K156" s="143"/>
+      <c r="L156" s="143"/>
+      <c r="M156" s="143"/>
+      <c r="N156" s="143"/>
+      <c r="O156" s="143"/>
+      <c r="P156" s="143"/>
+      <c r="Q156" s="143"/>
+      <c r="R156" s="143"/>
+      <c r="S156" s="143"/>
+      <c r="T156" s="143"/>
+      <c r="U156" s="143"/>
+      <c r="V156" s="143"/>
       <c r="W156" s="50"/>
       <c r="X156" s="51"/>
     </row>
     <row r="157" spans="1:24">
       <c r="A157" s="49"/>
-      <c r="E157" s="61"/>
-      <c r="F157" s="61"/>
-      <c r="G157" s="61"/>
-      <c r="H157" s="61"/>
-      <c r="I157" s="61"/>
-      <c r="J157" s="61"/>
-      <c r="K157" s="61"/>
-      <c r="L157" s="61"/>
-      <c r="M157" s="61"/>
-      <c r="N157" s="61"/>
-      <c r="O157" s="61"/>
-      <c r="P157" s="61"/>
-      <c r="Q157" s="61"/>
-      <c r="R157" s="61"/>
-      <c r="S157" s="61"/>
-      <c r="T157" s="61"/>
-      <c r="U157" s="61"/>
-      <c r="V157" s="61"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="60"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="60"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
+      <c r="L157" s="60"/>
+      <c r="M157" s="60"/>
+      <c r="N157" s="60"/>
+      <c r="O157" s="60"/>
+      <c r="P157" s="60"/>
+      <c r="Q157" s="60"/>
+      <c r="R157" s="60"/>
+      <c r="S157" s="60"/>
+      <c r="T157" s="60"/>
+      <c r="U157" s="60"/>
+      <c r="V157" s="60"/>
       <c r="W157" s="50"/>
       <c r="X157" s="51"/>
     </row>
     <row r="158" spans="1:24">
       <c r="A158" s="49"/>
       <c r="E158" s="57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F158" s="54"/>
       <c r="G158" s="40"/>
@@ -11320,7 +11218,7 @@
       <c r="A159" s="49"/>
       <c r="E159" s="56"/>
       <c r="F159" s="40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G159" s="40"/>
       <c r="H159" s="40"/>
@@ -11340,7 +11238,7 @@
       <c r="A160" s="49"/>
       <c r="E160" s="57"/>
       <c r="F160" s="54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G160" s="40"/>
       <c r="H160" s="40"/>
@@ -11360,7 +11258,7 @@
       <c r="A161" s="49"/>
       <c r="E161" s="56"/>
       <c r="F161" s="54" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G161" s="40"/>
       <c r="H161" s="40"/>
@@ -11384,11 +11282,11 @@
     </row>
     <row r="163" spans="1:24">
       <c r="E163" s="105" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F163" s="105"/>
       <c r="G163" s="105" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H163" s="105"/>
       <c r="I163" s="105"/>
@@ -11400,7 +11298,7 @@
       <c r="O163" s="105"/>
       <c r="P163" s="105"/>
       <c r="Q163" s="105" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R163" s="105"/>
       <c r="S163" s="105"/>
@@ -11409,56 +11307,56 @@
       <c r="V163" s="105"/>
     </row>
     <row r="164" spans="1:24">
-      <c r="E164" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="F164" s="104"/>
-      <c r="G164" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="H164" s="100"/>
-      <c r="I164" s="100"/>
-      <c r="J164" s="100"/>
-      <c r="K164" s="100"/>
-      <c r="L164" s="100"/>
-      <c r="M164" s="100"/>
-      <c r="N164" s="100"/>
-      <c r="O164" s="100"/>
-      <c r="P164" s="100"/>
-      <c r="Q164" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="R164" s="100"/>
-      <c r="S164" s="100"/>
-      <c r="T164" s="100"/>
-      <c r="U164" s="100"/>
-      <c r="V164" s="100"/>
+      <c r="E164" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="F164" s="142"/>
+      <c r="G164" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" s="99"/>
+      <c r="I164" s="99"/>
+      <c r="J164" s="99"/>
+      <c r="K164" s="99"/>
+      <c r="L164" s="99"/>
+      <c r="M164" s="99"/>
+      <c r="N164" s="99"/>
+      <c r="O164" s="99"/>
+      <c r="P164" s="99"/>
+      <c r="Q164" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="R164" s="99"/>
+      <c r="S164" s="99"/>
+      <c r="T164" s="99"/>
+      <c r="U164" s="99"/>
+      <c r="V164" s="99"/>
     </row>
     <row r="165" spans="1:24">
-      <c r="E165" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="F165" s="104"/>
-      <c r="G165" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="H165" s="100"/>
-      <c r="I165" s="100"/>
-      <c r="J165" s="100"/>
-      <c r="K165" s="100"/>
-      <c r="L165" s="100"/>
-      <c r="M165" s="100"/>
-      <c r="N165" s="100"/>
-      <c r="O165" s="100"/>
-      <c r="P165" s="100"/>
-      <c r="Q165" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="R165" s="100"/>
-      <c r="S165" s="100"/>
-      <c r="T165" s="100"/>
-      <c r="U165" s="100"/>
-      <c r="V165" s="100"/>
+      <c r="E165" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165" s="142"/>
+      <c r="G165" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H165" s="99"/>
+      <c r="I165" s="99"/>
+      <c r="J165" s="99"/>
+      <c r="K165" s="99"/>
+      <c r="L165" s="99"/>
+      <c r="M165" s="99"/>
+      <c r="N165" s="99"/>
+      <c r="O165" s="99"/>
+      <c r="P165" s="99"/>
+      <c r="Q165" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="R165" s="99"/>
+      <c r="S165" s="99"/>
+      <c r="T165" s="99"/>
+      <c r="U165" s="99"/>
+      <c r="V165" s="99"/>
     </row>
     <row r="168" spans="1:24">
       <c r="C168" s="53"/>
@@ -11559,7 +11457,7 @@
     <row r="172" spans="1:24">
       <c r="C172" s="52"/>
       <c r="D172" s="57" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E172" s="40"/>
       <c r="F172" s="40"/>
@@ -11583,64 +11481,110 @@
       <c r="X172" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="196">
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:X43"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A41:D43"/>
-    <mergeCell ref="E41:F43"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:O42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:U53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:U54"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:U52"/>
+  <mergeCells count="184">
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:U64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:U65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:U62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:U63"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:U60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:U61"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:U59"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:P165"/>
+    <mergeCell ref="Q165:V165"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:P163"/>
+    <mergeCell ref="Q163:V163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:P164"/>
+    <mergeCell ref="Q164:V164"/>
+    <mergeCell ref="H156:V156"/>
+    <mergeCell ref="E155:G156"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="H154:V154"/>
+    <mergeCell ref="H155:V155"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="O134:Q134"/>
+    <mergeCell ref="R134:S134"/>
+    <mergeCell ref="T134:V134"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="O131:Q131"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:V131"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="T133:V133"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="I132:N132"/>
+    <mergeCell ref="O132:Q132"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="T132:V132"/>
+    <mergeCell ref="A122:D124"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:I124"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
     <mergeCell ref="W81:X81"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="R82:T82"/>
@@ -11665,121 +11609,63 @@
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="J58:K58"/>
-    <mergeCell ref="A122:D124"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:I124"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="O131:Q131"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="T131:V131"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="T133:V133"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="I132:N132"/>
-    <mergeCell ref="O132:Q132"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="T132:V132"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="R141:V141"/>
-    <mergeCell ref="I141:Q141"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="I140:Q140"/>
-    <mergeCell ref="R140:V140"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="I134:N134"/>
-    <mergeCell ref="O134:Q134"/>
-    <mergeCell ref="R134:S134"/>
-    <mergeCell ref="T134:V134"/>
-    <mergeCell ref="H156:V156"/>
-    <mergeCell ref="E155:G156"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="H154:V154"/>
-    <mergeCell ref="H155:V155"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:Q143"/>
-    <mergeCell ref="R143:V143"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="I142:Q142"/>
-    <mergeCell ref="R142:V142"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:P165"/>
-    <mergeCell ref="Q165:V165"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:P163"/>
-    <mergeCell ref="Q163:V163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:P164"/>
-    <mergeCell ref="Q164:V164"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:U59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:U60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:U61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:U62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:U63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:U64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:U65"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:U53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:U54"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:U52"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A41:D43"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:O42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:X43"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" orientation="portrait" r:id="rId1"/>

--- a/BAOCAO/Tailieuthietke/FormQLĐĐH.xlsx
+++ b/BAOCAO/Tailieuthietke/FormQLĐĐH.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_workspace\a_DO_AN_MTT\TTTN\BAOCAO\Tailieuthietke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguoi\OneDrive\Desktop\New folder\TTTN\BAOCAO\Tailieuthietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E22F2-B74B-4A74-9DA2-1C076B43FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B160676-41B8-4F92-898F-3851DD9008E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
     <sheet name="Thiết kế" sheetId="3" r:id="rId2"/>
+    <sheet name="Xử lý chi tiết" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="135">
   <si>
     <t>Posts and Telecommunications Institute of Technology</t>
   </si>
@@ -419,6 +420,24 @@
   </si>
   <si>
     <t>a. Trạng thái đầu tiên "Chờ xác nhận"</t>
+  </si>
+  <si>
+    <t>- Nếu không thể,  Người quản lý sẽ tiến hành Hủy đơn đặt hàng, một popup xác nhận có muốn hủy đơn hàng sẽ hiện lên, và sau khi xác nhận trạng thái đơn hàng sẽ trở thành đã hủy</t>
+  </si>
+  <si>
+    <t>- Nếu có thể Người quản lý sẽ tiến hành Duyệt đơn đặt hàng, một popup xác nhận có muốn duyệt đơn hàng sẽ hiện lên, và sau khi xác nhận trạng thái đơn hàng sẽ trở thành đã duyệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Trạng thái đầu tiên "Chờ duyệt": Đơn hàng được khách hàng đặt, người quản lý sẽ kiểm tra sản phẩm khách hàng đã đặt cửa hàng có thể đáp ứng hay không: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Trạng thái đầu tiên "Đã duyệt": Đơn hàng của khách hàng đã được người quản lý xác nhận, sẽ chuyển đến trạng thái "Đang giao" khi người quản lý chọn nhân viên giao đơn hàng đó </t>
+  </si>
+  <si>
+    <t>- Khi người quản lý nhấn vào icon tùy chọn khi đơn hàng đang trong trạng thái "Đã duyệt", một cửa sổ tùy chọn nhân viên giao hàng sẽ được hiển thị</t>
+  </si>
+  <si>
+    <t>[Vùng hiển thị]</t>
   </si>
 </sst>
 </file>
@@ -559,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -824,6 +843,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -834,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,21 +1015,14 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,46 +1032,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,6 +1062,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,14 +1077,68 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,31 +1146,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,9 +1225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,49 +1278,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4532,6 +4604,142 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>193948</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304282</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C90E1B9-D3A0-C402-0985-3F398D3D0293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="1749" t="5082" r="1666" b="3979"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477772" y="6522685"/>
+          <a:ext cx="3135922" cy="945174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F15C875-6824-EC2B-3B0E-E5D95719272E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3014383" y="6846793"/>
+          <a:ext cx="3507441" cy="1104998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522016</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>141037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F70DAE-1C7B-787D-FF00-1B06B9626DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801470" y="10287000"/>
+          <a:ext cx="6214605" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4811,348 +5019,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="62" t="s">
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="63" t="s">
+      <c r="Q1" s="85"/>
+      <c r="R1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="65" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66">
+      <c r="V1" s="86"/>
+      <c r="W1" s="97">
         <v>45026</v>
       </c>
-      <c r="X1" s="64"/>
+      <c r="X1" s="91"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="62" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="65" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="64" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="64" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="78"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="79"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="93"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="79"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="78"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="93"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="79"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="78"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="93"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="79"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="78"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="93"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="79"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="78"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="93"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="79"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="78"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="93"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="79"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="78"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="93"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="79"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="78"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="93"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="3"/>
@@ -5161,21 +5369,21 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -5189,19 +5397,19 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -5215,19 +5423,19 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -5241,19 +5449,19 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -5267,19 +5475,19 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -5683,112 +5891,112 @@
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="63" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63" t="s">
+      <c r="F40" s="69"/>
+      <c r="G40" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="71" t="s">
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="63" t="s">
+      <c r="K40" s="98"/>
+      <c r="L40" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="71" t="s">
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="63" t="s">
+      <c r="Q40" s="98"/>
+      <c r="R40" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="75" t="s">
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="V40" s="75"/>
-      <c r="W40" s="66">
+      <c r="V40" s="99"/>
+      <c r="W40" s="97">
         <v>45026</v>
       </c>
-      <c r="X40" s="64"/>
+      <c r="X40" s="91"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="71" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="75" t="s">
+      <c r="Q41" s="98"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="75"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="71" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="64" t="s">
+      <c r="K42" s="98"/>
+      <c r="L42" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="75" t="s">
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="64" t="s">
+      <c r="Q42" s="99"/>
+      <c r="R42" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="14"/>
@@ -5830,830 +6038,830 @@
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1">
       <c r="A47" s="8"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70" t="s">
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70" t="s">
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="89"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="78"/>
       <c r="W47" s="4"/>
       <c r="X47" s="10"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" thickBot="1">
       <c r="A48" s="8"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="71" t="s">
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71" t="s">
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71" t="s">
+      <c r="R48" s="98"/>
+      <c r="S48" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71" t="s">
+      <c r="T48" s="98"/>
+      <c r="U48" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="V48" s="71"/>
+      <c r="V48" s="98"/>
       <c r="W48" s="4"/>
       <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="8"/>
-      <c r="B49" s="72">
+      <c r="B49" s="87">
         <v>1</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="100">
         <v>45026</v>
       </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72" t="s">
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72" t="s">
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="87"/>
+      <c r="V49" s="87"/>
       <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="8"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="87"/>
       <c r="X50" s="10"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="8"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="87"/>
+      <c r="V51" s="87"/>
       <c r="X51" s="10"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="8"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="72"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="87"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="87"/>
+      <c r="V52" s="87"/>
       <c r="X52" s="10"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="8"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="72"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="87"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="87"/>
+      <c r="V53" s="87"/>
       <c r="X53" s="10"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="8"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="87"/>
+      <c r="S54" s="87"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="87"/>
+      <c r="V54" s="87"/>
       <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="8"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
       <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="8"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="87"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="87"/>
+      <c r="V56" s="87"/>
       <c r="X56" s="10"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="8"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="72"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="87"/>
+      <c r="V57" s="87"/>
       <c r="X57" s="10"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="8"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="72"/>
-      <c r="V58" s="72"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="87"/>
+      <c r="V58" s="87"/>
       <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="8"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="72"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="87"/>
+      <c r="V59" s="87"/>
       <c r="X59" s="10"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="8"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="72"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="87"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="87"/>
+      <c r="U60" s="87"/>
+      <c r="V60" s="87"/>
       <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="8"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="87"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="87"/>
+      <c r="U61" s="87"/>
+      <c r="V61" s="87"/>
       <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="8"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="72"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="87"/>
+      <c r="M62" s="87"/>
+      <c r="N62" s="87"/>
+      <c r="O62" s="87"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="87"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="87"/>
+      <c r="V62" s="87"/>
       <c r="X62" s="10"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="8"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="87"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="87"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="87"/>
+      <c r="U63" s="87"/>
+      <c r="V63" s="87"/>
       <c r="X63" s="10"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="8"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="87"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="87"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="87"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="87"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="87"/>
+      <c r="U64" s="87"/>
+      <c r="V64" s="87"/>
       <c r="X64" s="10"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="8"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="72"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="87"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="87"/>
+      <c r="U65" s="87"/>
+      <c r="V65" s="87"/>
       <c r="X65" s="10"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="72"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="72"/>
-      <c r="Q66" s="72"/>
-      <c r="R66" s="72"/>
-      <c r="S66" s="72"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="72"/>
-      <c r="V66" s="72"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="87"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="87"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="87"/>
+      <c r="U66" s="87"/>
+      <c r="V66" s="87"/>
       <c r="X66" s="10"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="8"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="87"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="87"/>
+      <c r="P67" s="87"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="87"/>
+      <c r="S67" s="87"/>
+      <c r="T67" s="87"/>
+      <c r="U67" s="87"/>
+      <c r="V67" s="87"/>
       <c r="X67" s="10"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="8"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
-      <c r="V68" s="72"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="87"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="87"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="87"/>
+      <c r="S68" s="87"/>
+      <c r="T68" s="87"/>
+      <c r="U68" s="87"/>
+      <c r="V68" s="87"/>
       <c r="X68" s="10"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="8"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="72"/>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="72"/>
-      <c r="V69" s="72"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="87"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="87"/>
+      <c r="S69" s="87"/>
+      <c r="T69" s="87"/>
+      <c r="U69" s="87"/>
+      <c r="V69" s="87"/>
       <c r="X69" s="10"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="8"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="72"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="87"/>
+      <c r="M70" s="87"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="87"/>
+      <c r="P70" s="87"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="87"/>
+      <c r="S70" s="87"/>
+      <c r="T70" s="87"/>
+      <c r="U70" s="87"/>
+      <c r="V70" s="87"/>
       <c r="X70" s="10"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="8"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="87"/>
+      <c r="N71" s="87"/>
+      <c r="O71" s="87"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="87"/>
+      <c r="S71" s="87"/>
+      <c r="T71" s="87"/>
+      <c r="U71" s="87"/>
+      <c r="V71" s="87"/>
       <c r="X71" s="10"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="8"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="72"/>
-      <c r="P72" s="72"/>
-      <c r="Q72" s="72"/>
-      <c r="R72" s="72"/>
-      <c r="S72" s="72"/>
-      <c r="T72" s="72"/>
-      <c r="U72" s="72"/>
-      <c r="V72" s="72"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="87"/>
+      <c r="L72" s="87"/>
+      <c r="M72" s="87"/>
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="87"/>
+      <c r="S72" s="87"/>
+      <c r="T72" s="87"/>
+      <c r="U72" s="87"/>
+      <c r="V72" s="87"/>
       <c r="X72" s="10"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="8"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="72"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="87"/>
+      <c r="K73" s="87"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="87"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="87"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="87"/>
+      <c r="S73" s="87"/>
+      <c r="T73" s="87"/>
+      <c r="U73" s="87"/>
+      <c r="V73" s="87"/>
       <c r="X73" s="10"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="8"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
-      <c r="V74" s="72"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="87"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="87"/>
+      <c r="S74" s="87"/>
+      <c r="T74" s="87"/>
+      <c r="U74" s="87"/>
+      <c r="V74" s="87"/>
       <c r="X74" s="10"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="8"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="72"/>
-      <c r="V75" s="72"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="87"/>
+      <c r="L75" s="87"/>
+      <c r="M75" s="87"/>
+      <c r="N75" s="87"/>
+      <c r="O75" s="87"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="87"/>
+      <c r="S75" s="87"/>
+      <c r="T75" s="87"/>
+      <c r="U75" s="87"/>
+      <c r="V75" s="87"/>
       <c r="X75" s="10"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" thickBot="1">
       <c r="A76" s="8"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="82"/>
-      <c r="O76" s="82"/>
-      <c r="P76" s="82"/>
-      <c r="Q76" s="82"/>
-      <c r="R76" s="82"/>
-      <c r="S76" s="82"/>
-      <c r="T76" s="82"/>
-      <c r="U76" s="82"/>
-      <c r="V76" s="83"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="88"/>
+      <c r="U76" s="88"/>
+      <c r="V76" s="89"/>
       <c r="W76" s="18"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="8"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="8"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="77"/>
-      <c r="R77" s="77"/>
-      <c r="S77" s="77"/>
-      <c r="T77" s="77"/>
-      <c r="U77" s="77"/>
-      <c r="V77" s="77"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="90"/>
       <c r="X77" s="10"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="77"/>
-      <c r="N78" s="77"/>
-      <c r="O78" s="77"/>
-      <c r="P78" s="77"/>
-      <c r="Q78" s="77"/>
-      <c r="R78" s="77"/>
-      <c r="S78" s="77"/>
-      <c r="T78" s="77"/>
-      <c r="U78" s="77"/>
-      <c r="V78" s="77"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="90"/>
+      <c r="L78" s="90"/>
+      <c r="M78" s="90"/>
+      <c r="N78" s="90"/>
+      <c r="O78" s="90"/>
+      <c r="P78" s="90"/>
+      <c r="Q78" s="90"/>
+      <c r="R78" s="90"/>
+      <c r="S78" s="90"/>
+      <c r="T78" s="90"/>
+      <c r="U78" s="90"/>
+      <c r="V78" s="90"/>
       <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:25">
@@ -6687,112 +6895,112 @@
       <c r="X80" s="13"/>
     </row>
     <row r="81" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A81" s="74" t="s">
+      <c r="A81" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="74"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="63" t="s">
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63" t="s">
+      <c r="F81" s="69"/>
+      <c r="G81" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="62" t="s">
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="62"/>
-      <c r="L81" s="63" t="s">
+      <c r="K81" s="85"/>
+      <c r="L81" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="62" t="s">
+      <c r="M81" s="69"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q81" s="62"/>
-      <c r="R81" s="63" t="s">
+      <c r="Q81" s="85"/>
+      <c r="R81" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="63"/>
-      <c r="T81" s="63"/>
-      <c r="U81" s="65" t="s">
+      <c r="S81" s="69"/>
+      <c r="T81" s="69"/>
+      <c r="U81" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="65"/>
-      <c r="W81" s="66">
+      <c r="V81" s="86"/>
+      <c r="W81" s="97">
         <v>45026</v>
       </c>
-      <c r="X81" s="64"/>
+      <c r="X81" s="91"/>
     </row>
     <row r="82" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="62" t="s">
+      <c r="A82" s="84"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="64"/>
-      <c r="S82" s="64"/>
-      <c r="T82" s="64"/>
-      <c r="U82" s="65" t="s">
+      <c r="Q82" s="85"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="91"/>
+      <c r="T82" s="91"/>
+      <c r="U82" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="65"/>
-      <c r="W82" s="64"/>
-      <c r="X82" s="64"/>
+      <c r="V82" s="86"/>
+      <c r="W82" s="91"/>
+      <c r="X82" s="91"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="62" t="s">
+      <c r="A83" s="84"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="62"/>
-      <c r="L83" s="64" t="s">
+      <c r="K83" s="85"/>
+      <c r="L83" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="65" t="s">
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="64" t="s">
+      <c r="Q83" s="86"/>
+      <c r="R83" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S83" s="64"/>
-      <c r="T83" s="64"/>
-      <c r="U83" s="64"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="64"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="14"/>
@@ -7049,112 +7257,112 @@
       <c r="X121" s="13"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="74" t="s">
+      <c r="A122" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="74"/>
-      <c r="C122" s="74"/>
-      <c r="D122" s="74"/>
-      <c r="E122" s="63" t="s">
+      <c r="B122" s="84"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="84"/>
+      <c r="E122" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63" t="s">
+      <c r="F122" s="69"/>
+      <c r="G122" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="62" t="s">
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="62"/>
-      <c r="L122" s="63" t="s">
+      <c r="K122" s="85"/>
+      <c r="L122" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="63"/>
-      <c r="N122" s="63"/>
-      <c r="O122" s="63"/>
-      <c r="P122" s="62" t="s">
+      <c r="M122" s="69"/>
+      <c r="N122" s="69"/>
+      <c r="O122" s="69"/>
+      <c r="P122" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="63" t="s">
+      <c r="Q122" s="85"/>
+      <c r="R122" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S122" s="63"/>
-      <c r="T122" s="63"/>
-      <c r="U122" s="65" t="s">
+      <c r="S122" s="69"/>
+      <c r="T122" s="69"/>
+      <c r="U122" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V122" s="65"/>
-      <c r="W122" s="66">
+      <c r="V122" s="86"/>
+      <c r="W122" s="97">
         <v>45026</v>
       </c>
-      <c r="X122" s="64"/>
+      <c r="X122" s="91"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="74"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="63"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="63"/>
-      <c r="I123" s="63"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="62"/>
-      <c r="L123" s="63"/>
-      <c r="M123" s="63"/>
-      <c r="N123" s="63"/>
-      <c r="O123" s="63"/>
-      <c r="P123" s="62" t="s">
+      <c r="A123" s="84"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
+      <c r="J123" s="85"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="69"/>
+      <c r="M123" s="69"/>
+      <c r="N123" s="69"/>
+      <c r="O123" s="69"/>
+      <c r="P123" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q123" s="62"/>
-      <c r="R123" s="64"/>
-      <c r="S123" s="64"/>
-      <c r="T123" s="64"/>
-      <c r="U123" s="65" t="s">
+      <c r="Q123" s="85"/>
+      <c r="R123" s="91"/>
+      <c r="S123" s="91"/>
+      <c r="T123" s="91"/>
+      <c r="U123" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V123" s="65"/>
-      <c r="W123" s="64"/>
-      <c r="X123" s="64"/>
+      <c r="V123" s="86"/>
+      <c r="W123" s="91"/>
+      <c r="X123" s="91"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="74"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="62" t="s">
+      <c r="A124" s="84"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="62"/>
-      <c r="L124" s="64" t="s">
+      <c r="K124" s="85"/>
+      <c r="L124" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M124" s="64"/>
-      <c r="N124" s="64"/>
-      <c r="O124" s="64"/>
-      <c r="P124" s="65" t="s">
+      <c r="M124" s="91"/>
+      <c r="N124" s="91"/>
+      <c r="O124" s="91"/>
+      <c r="P124" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="65"/>
-      <c r="R124" s="64" t="s">
+      <c r="Q124" s="86"/>
+      <c r="R124" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S124" s="64"/>
-      <c r="T124" s="64"/>
-      <c r="U124" s="64"/>
-      <c r="V124" s="64"/>
-      <c r="W124" s="64"/>
-      <c r="X124" s="64"/>
+      <c r="S124" s="91"/>
+      <c r="T124" s="91"/>
+      <c r="U124" s="91"/>
+      <c r="V124" s="91"/>
+      <c r="W124" s="91"/>
+      <c r="X124" s="91"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="14"/>
@@ -7410,31 +7618,31 @@
       <c r="C148" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="70" t="s">
+      <c r="D148" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70" t="s">
+      <c r="E148" s="79"/>
+      <c r="F148" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="70"/>
-      <c r="J148" s="70"/>
+      <c r="G148" s="79"/>
+      <c r="H148" s="79"/>
+      <c r="I148" s="79"/>
+      <c r="J148" s="79"/>
       <c r="K148" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L148" s="90" t="s">
+      <c r="L148" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="M148" s="91"/>
-      <c r="N148" s="91"/>
-      <c r="O148" s="91"/>
-      <c r="P148" s="91"/>
-      <c r="Q148" s="91"/>
-      <c r="R148" s="91"/>
-      <c r="S148" s="91"/>
-      <c r="T148" s="92"/>
+      <c r="M148" s="81"/>
+      <c r="N148" s="81"/>
+      <c r="O148" s="81"/>
+      <c r="P148" s="81"/>
+      <c r="Q148" s="81"/>
+      <c r="R148" s="81"/>
+      <c r="S148" s="81"/>
+      <c r="T148" s="82"/>
       <c r="X148" s="10"/>
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
@@ -7442,31 +7650,31 @@
       <c r="C149" s="39">
         <v>1</v>
       </c>
-      <c r="D149" s="93" t="s">
+      <c r="D149" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E149" s="93"/>
-      <c r="F149" s="94" t="s">
+      <c r="E149" s="83"/>
+      <c r="F149" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G149" s="95"/>
-      <c r="H149" s="94" t="s">
+      <c r="G149" s="71"/>
+      <c r="H149" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="I149" s="96"/>
-      <c r="J149" s="95"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="71"/>
       <c r="K149" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L149" s="67"/>
-      <c r="M149" s="68"/>
-      <c r="N149" s="68"/>
-      <c r="O149" s="68"/>
-      <c r="P149" s="68"/>
-      <c r="Q149" s="68"/>
-      <c r="R149" s="68"/>
-      <c r="S149" s="68"/>
-      <c r="T149" s="69"/>
+      <c r="L149" s="66"/>
+      <c r="M149" s="67"/>
+      <c r="N149" s="67"/>
+      <c r="O149" s="67"/>
+      <c r="P149" s="67"/>
+      <c r="Q149" s="67"/>
+      <c r="R149" s="67"/>
+      <c r="S149" s="67"/>
+      <c r="T149" s="68"/>
       <c r="X149" s="10"/>
     </row>
     <row r="150" spans="1:24" ht="15.75" thickBot="1">
@@ -7474,31 +7682,31 @@
       <c r="C150" s="39">
         <v>2</v>
       </c>
-      <c r="D150" s="63" t="s">
+      <c r="D150" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E150" s="63"/>
-      <c r="F150" s="67" t="s">
+      <c r="E150" s="69"/>
+      <c r="F150" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G150" s="69"/>
-      <c r="H150" s="67" t="s">
+      <c r="G150" s="68"/>
+      <c r="H150" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I150" s="68"/>
-      <c r="J150" s="69"/>
+      <c r="I150" s="67"/>
+      <c r="J150" s="68"/>
       <c r="K150" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L150" s="67"/>
-      <c r="M150" s="68"/>
-      <c r="N150" s="68"/>
-      <c r="O150" s="68"/>
-      <c r="P150" s="68"/>
-      <c r="Q150" s="68"/>
-      <c r="R150" s="68"/>
-      <c r="S150" s="68"/>
-      <c r="T150" s="69"/>
+      <c r="L150" s="66"/>
+      <c r="M150" s="67"/>
+      <c r="N150" s="67"/>
+      <c r="O150" s="67"/>
+      <c r="P150" s="67"/>
+      <c r="Q150" s="67"/>
+      <c r="R150" s="67"/>
+      <c r="S150" s="67"/>
+      <c r="T150" s="68"/>
       <c r="X150" s="10"/>
     </row>
     <row r="151" spans="1:24" ht="15.75" thickBot="1">
@@ -7506,31 +7714,31 @@
       <c r="C151" s="39">
         <v>3</v>
       </c>
-      <c r="D151" s="63" t="s">
+      <c r="D151" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="63"/>
-      <c r="F151" s="67" t="s">
+      <c r="E151" s="69"/>
+      <c r="F151" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G151" s="69"/>
-      <c r="H151" s="67" t="s">
+      <c r="G151" s="68"/>
+      <c r="H151" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I151" s="68"/>
-      <c r="J151" s="69"/>
+      <c r="I151" s="67"/>
+      <c r="J151" s="68"/>
       <c r="K151" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L151" s="67"/>
-      <c r="M151" s="68"/>
-      <c r="N151" s="68"/>
-      <c r="O151" s="68"/>
-      <c r="P151" s="68"/>
-      <c r="Q151" s="68"/>
-      <c r="R151" s="68"/>
-      <c r="S151" s="68"/>
-      <c r="T151" s="69"/>
+      <c r="L151" s="66"/>
+      <c r="M151" s="67"/>
+      <c r="N151" s="67"/>
+      <c r="O151" s="67"/>
+      <c r="P151" s="67"/>
+      <c r="Q151" s="67"/>
+      <c r="R151" s="67"/>
+      <c r="S151" s="67"/>
+      <c r="T151" s="68"/>
       <c r="X151" s="10"/>
     </row>
     <row r="152" spans="1:24" ht="15.75" thickBot="1">
@@ -7538,185 +7746,185 @@
       <c r="C152" s="1">
         <v>4</v>
       </c>
-      <c r="D152" s="63" t="s">
+      <c r="D152" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E152" s="63"/>
-      <c r="F152" s="67" t="s">
+      <c r="E152" s="69"/>
+      <c r="F152" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G152" s="69"/>
-      <c r="H152" s="67" t="s">
+      <c r="G152" s="68"/>
+      <c r="H152" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="I152" s="68"/>
-      <c r="J152" s="69"/>
+      <c r="I152" s="67"/>
+      <c r="J152" s="68"/>
       <c r="K152" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L152" s="67"/>
-      <c r="M152" s="68"/>
-      <c r="N152" s="68"/>
-      <c r="O152" s="68"/>
-      <c r="P152" s="68"/>
-      <c r="Q152" s="68"/>
-      <c r="R152" s="68"/>
-      <c r="S152" s="68"/>
-      <c r="T152" s="69"/>
+      <c r="L152" s="66"/>
+      <c r="M152" s="67"/>
+      <c r="N152" s="67"/>
+      <c r="O152" s="67"/>
+      <c r="P152" s="67"/>
+      <c r="Q152" s="67"/>
+      <c r="R152" s="67"/>
+      <c r="S152" s="67"/>
+      <c r="T152" s="68"/>
       <c r="X152" s="10"/>
     </row>
     <row r="153" spans="1:24" ht="15.75" thickBot="1">
       <c r="A153" s="8"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="63"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="69"/>
-      <c r="H153" s="67"/>
-      <c r="I153" s="68"/>
-      <c r="J153" s="69"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="68"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="67"/>
-      <c r="M153" s="68"/>
-      <c r="N153" s="68"/>
-      <c r="O153" s="68"/>
-      <c r="P153" s="68"/>
-      <c r="Q153" s="68"/>
-      <c r="R153" s="68"/>
-      <c r="S153" s="68"/>
-      <c r="T153" s="69"/>
+      <c r="L153" s="66"/>
+      <c r="M153" s="67"/>
+      <c r="N153" s="67"/>
+      <c r="O153" s="67"/>
+      <c r="P153" s="67"/>
+      <c r="Q153" s="67"/>
+      <c r="R153" s="67"/>
+      <c r="S153" s="67"/>
+      <c r="T153" s="68"/>
       <c r="X153" s="10"/>
     </row>
     <row r="154" spans="1:24" ht="15.75" thickBot="1">
       <c r="A154" s="8"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="67"/>
-      <c r="I154" s="68"/>
-      <c r="J154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="67"/>
+      <c r="J154" s="68"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="67"/>
-      <c r="M154" s="68"/>
-      <c r="N154" s="68"/>
-      <c r="O154" s="68"/>
-      <c r="P154" s="68"/>
-      <c r="Q154" s="68"/>
-      <c r="R154" s="68"/>
-      <c r="S154" s="68"/>
-      <c r="T154" s="69"/>
+      <c r="L154" s="66"/>
+      <c r="M154" s="67"/>
+      <c r="N154" s="67"/>
+      <c r="O154" s="67"/>
+      <c r="P154" s="67"/>
+      <c r="Q154" s="67"/>
+      <c r="R154" s="67"/>
+      <c r="S154" s="67"/>
+      <c r="T154" s="68"/>
       <c r="X154" s="10"/>
     </row>
     <row r="155" spans="1:24" ht="15.75" thickBot="1">
       <c r="A155" s="8"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="69"/>
-      <c r="H155" s="67"/>
-      <c r="I155" s="68"/>
-      <c r="J155" s="69"/>
+      <c r="D155" s="69"/>
+      <c r="E155" s="69"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="66"/>
+      <c r="I155" s="67"/>
+      <c r="J155" s="68"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="67"/>
-      <c r="M155" s="68"/>
-      <c r="N155" s="68"/>
-      <c r="O155" s="68"/>
-      <c r="P155" s="68"/>
-      <c r="Q155" s="68"/>
-      <c r="R155" s="68"/>
-      <c r="S155" s="68"/>
-      <c r="T155" s="69"/>
+      <c r="L155" s="66"/>
+      <c r="M155" s="67"/>
+      <c r="N155" s="67"/>
+      <c r="O155" s="67"/>
+      <c r="P155" s="67"/>
+      <c r="Q155" s="67"/>
+      <c r="R155" s="67"/>
+      <c r="S155" s="67"/>
+      <c r="T155" s="68"/>
       <c r="X155" s="10"/>
     </row>
     <row r="156" spans="1:24" ht="15.75" thickBot="1">
       <c r="A156" s="8"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="63"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="67"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="67"/>
-      <c r="I156" s="68"/>
-      <c r="J156" s="69"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="67"/>
+      <c r="J156" s="68"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="67"/>
-      <c r="M156" s="68"/>
-      <c r="N156" s="68"/>
-      <c r="O156" s="68"/>
-      <c r="P156" s="68"/>
-      <c r="Q156" s="68"/>
-      <c r="R156" s="68"/>
-      <c r="S156" s="68"/>
-      <c r="T156" s="69"/>
+      <c r="L156" s="66"/>
+      <c r="M156" s="67"/>
+      <c r="N156" s="67"/>
+      <c r="O156" s="67"/>
+      <c r="P156" s="67"/>
+      <c r="Q156" s="67"/>
+      <c r="R156" s="67"/>
+      <c r="S156" s="67"/>
+      <c r="T156" s="68"/>
       <c r="X156" s="10"/>
     </row>
     <row r="157" spans="1:24" ht="15.75" thickBot="1">
       <c r="A157" s="8"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="63"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="67"/>
-      <c r="I157" s="68"/>
-      <c r="J157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="66"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="68"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="67"/>
-      <c r="M157" s="68"/>
-      <c r="N157" s="68"/>
-      <c r="O157" s="68"/>
-      <c r="P157" s="68"/>
-      <c r="Q157" s="68"/>
-      <c r="R157" s="68"/>
-      <c r="S157" s="68"/>
-      <c r="T157" s="69"/>
+      <c r="L157" s="66"/>
+      <c r="M157" s="67"/>
+      <c r="N157" s="67"/>
+      <c r="O157" s="67"/>
+      <c r="P157" s="67"/>
+      <c r="Q157" s="67"/>
+      <c r="R157" s="67"/>
+      <c r="S157" s="67"/>
+      <c r="T157" s="68"/>
       <c r="X157" s="10"/>
     </row>
     <row r="158" spans="1:24" ht="15.75" thickBot="1">
       <c r="A158" s="8"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="67"/>
-      <c r="I158" s="68"/>
-      <c r="J158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="67"/>
+      <c r="J158" s="68"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="67"/>
-      <c r="M158" s="68"/>
-      <c r="N158" s="68"/>
-      <c r="O158" s="68"/>
-      <c r="P158" s="68"/>
-      <c r="Q158" s="68"/>
-      <c r="R158" s="68"/>
-      <c r="S158" s="68"/>
-      <c r="T158" s="69"/>
+      <c r="L158" s="66"/>
+      <c r="M158" s="67"/>
+      <c r="N158" s="67"/>
+      <c r="O158" s="67"/>
+      <c r="P158" s="67"/>
+      <c r="Q158" s="67"/>
+      <c r="R158" s="67"/>
+      <c r="S158" s="67"/>
+      <c r="T158" s="68"/>
       <c r="X158" s="10"/>
     </row>
     <row r="159" spans="1:24" ht="15.75" thickBot="1">
       <c r="A159" s="8"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="63"/>
-      <c r="E159" s="63"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="67"/>
-      <c r="I159" s="68"/>
-      <c r="J159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="68"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="67"/>
-      <c r="M159" s="68"/>
-      <c r="N159" s="68"/>
-      <c r="O159" s="68"/>
-      <c r="P159" s="68"/>
-      <c r="Q159" s="68"/>
-      <c r="R159" s="68"/>
-      <c r="S159" s="68"/>
-      <c r="T159" s="69"/>
+      <c r="L159" s="66"/>
+      <c r="M159" s="67"/>
+      <c r="N159" s="67"/>
+      <c r="O159" s="67"/>
+      <c r="P159" s="67"/>
+      <c r="Q159" s="67"/>
+      <c r="R159" s="67"/>
+      <c r="S159" s="67"/>
+      <c r="T159" s="68"/>
       <c r="X159" s="10"/>
     </row>
     <row r="160" spans="1:24">
@@ -7757,112 +7965,112 @@
       <c r="X162" s="13"/>
     </row>
     <row r="163" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A163" s="74" t="s">
+      <c r="A163" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="74"/>
-      <c r="C163" s="74"/>
-      <c r="D163" s="74"/>
-      <c r="E163" s="63" t="s">
+      <c r="B163" s="84"/>
+      <c r="C163" s="84"/>
+      <c r="D163" s="84"/>
+      <c r="E163" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63" t="s">
+      <c r="F163" s="69"/>
+      <c r="G163" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
-      <c r="J163" s="62" t="s">
+      <c r="H163" s="69"/>
+      <c r="I163" s="69"/>
+      <c r="J163" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K163" s="62"/>
-      <c r="L163" s="63" t="s">
+      <c r="K163" s="85"/>
+      <c r="L163" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M163" s="63"/>
-      <c r="N163" s="63"/>
-      <c r="O163" s="63"/>
-      <c r="P163" s="62" t="s">
+      <c r="M163" s="69"/>
+      <c r="N163" s="69"/>
+      <c r="O163" s="69"/>
+      <c r="P163" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q163" s="62"/>
-      <c r="R163" s="63" t="s">
+      <c r="Q163" s="85"/>
+      <c r="R163" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S163" s="63"/>
-      <c r="T163" s="63"/>
-      <c r="U163" s="65" t="s">
+      <c r="S163" s="69"/>
+      <c r="T163" s="69"/>
+      <c r="U163" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V163" s="65"/>
-      <c r="W163" s="66">
+      <c r="V163" s="86"/>
+      <c r="W163" s="97">
         <v>45026</v>
       </c>
-      <c r="X163" s="64"/>
+      <c r="X163" s="91"/>
     </row>
     <row r="164" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A164" s="74"/>
-      <c r="B164" s="74"/>
-      <c r="C164" s="74"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="63"/>
-      <c r="F164" s="63"/>
-      <c r="G164" s="63"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="63"/>
-      <c r="J164" s="62"/>
-      <c r="K164" s="62"/>
-      <c r="L164" s="63"/>
-      <c r="M164" s="63"/>
-      <c r="N164" s="63"/>
-      <c r="O164" s="63"/>
-      <c r="P164" s="62" t="s">
+      <c r="A164" s="84"/>
+      <c r="B164" s="84"/>
+      <c r="C164" s="84"/>
+      <c r="D164" s="84"/>
+      <c r="E164" s="69"/>
+      <c r="F164" s="69"/>
+      <c r="G164" s="69"/>
+      <c r="H164" s="69"/>
+      <c r="I164" s="69"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="69"/>
+      <c r="M164" s="69"/>
+      <c r="N164" s="69"/>
+      <c r="O164" s="69"/>
+      <c r="P164" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q164" s="62"/>
-      <c r="R164" s="64"/>
-      <c r="S164" s="64"/>
-      <c r="T164" s="64"/>
-      <c r="U164" s="65" t="s">
+      <c r="Q164" s="85"/>
+      <c r="R164" s="91"/>
+      <c r="S164" s="91"/>
+      <c r="T164" s="91"/>
+      <c r="U164" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V164" s="65"/>
-      <c r="W164" s="64"/>
-      <c r="X164" s="64"/>
+      <c r="V164" s="86"/>
+      <c r="W164" s="91"/>
+      <c r="X164" s="91"/>
     </row>
     <row r="165" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A165" s="74"/>
-      <c r="B165" s="74"/>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="63"/>
-      <c r="I165" s="63"/>
-      <c r="J165" s="62" t="s">
+      <c r="A165" s="84"/>
+      <c r="B165" s="84"/>
+      <c r="C165" s="84"/>
+      <c r="D165" s="84"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="69"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="69"/>
+      <c r="J165" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K165" s="62"/>
-      <c r="L165" s="64" t="s">
+      <c r="K165" s="85"/>
+      <c r="L165" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M165" s="64"/>
-      <c r="N165" s="64"/>
-      <c r="O165" s="64"/>
-      <c r="P165" s="65" t="s">
+      <c r="M165" s="91"/>
+      <c r="N165" s="91"/>
+      <c r="O165" s="91"/>
+      <c r="P165" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q165" s="65"/>
-      <c r="R165" s="64" t="s">
+      <c r="Q165" s="86"/>
+      <c r="R165" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S165" s="64"/>
-      <c r="T165" s="64"/>
-      <c r="U165" s="64"/>
-      <c r="V165" s="64"/>
-      <c r="W165" s="64"/>
-      <c r="X165" s="64"/>
+      <c r="S165" s="91"/>
+      <c r="T165" s="91"/>
+      <c r="U165" s="91"/>
+      <c r="V165" s="91"/>
+      <c r="W165" s="91"/>
+      <c r="X165" s="91"/>
     </row>
     <row r="166" spans="1:24">
       <c r="A166" s="14"/>
@@ -8061,112 +8269,112 @@
       <c r="X203" s="13"/>
     </row>
     <row r="204" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A204" s="74" t="s">
+      <c r="A204" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="74"/>
-      <c r="C204" s="74"/>
-      <c r="D204" s="74"/>
-      <c r="E204" s="63" t="s">
+      <c r="B204" s="84"/>
+      <c r="C204" s="84"/>
+      <c r="D204" s="84"/>
+      <c r="E204" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F204" s="63"/>
-      <c r="G204" s="63" t="s">
+      <c r="F204" s="69"/>
+      <c r="G204" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H204" s="63"/>
-      <c r="I204" s="63"/>
-      <c r="J204" s="62" t="s">
+      <c r="H204" s="69"/>
+      <c r="I204" s="69"/>
+      <c r="J204" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K204" s="62"/>
-      <c r="L204" s="63" t="s">
+      <c r="K204" s="85"/>
+      <c r="L204" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M204" s="63"/>
-      <c r="N204" s="63"/>
-      <c r="O204" s="63"/>
-      <c r="P204" s="62" t="s">
+      <c r="M204" s="69"/>
+      <c r="N204" s="69"/>
+      <c r="O204" s="69"/>
+      <c r="P204" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q204" s="62"/>
-      <c r="R204" s="63" t="s">
+      <c r="Q204" s="85"/>
+      <c r="R204" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S204" s="63"/>
-      <c r="T204" s="63"/>
-      <c r="U204" s="65" t="s">
+      <c r="S204" s="69"/>
+      <c r="T204" s="69"/>
+      <c r="U204" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V204" s="65"/>
-      <c r="W204" s="66">
+      <c r="V204" s="86"/>
+      <c r="W204" s="97">
         <v>45026</v>
       </c>
-      <c r="X204" s="64"/>
+      <c r="X204" s="91"/>
     </row>
     <row r="205" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A205" s="74"/>
-      <c r="B205" s="74"/>
-      <c r="C205" s="74"/>
-      <c r="D205" s="74"/>
-      <c r="E205" s="63"/>
-      <c r="F205" s="63"/>
-      <c r="G205" s="63"/>
-      <c r="H205" s="63"/>
-      <c r="I205" s="63"/>
-      <c r="J205" s="62"/>
-      <c r="K205" s="62"/>
-      <c r="L205" s="63"/>
-      <c r="M205" s="63"/>
-      <c r="N205" s="63"/>
-      <c r="O205" s="63"/>
-      <c r="P205" s="62" t="s">
+      <c r="A205" s="84"/>
+      <c r="B205" s="84"/>
+      <c r="C205" s="84"/>
+      <c r="D205" s="84"/>
+      <c r="E205" s="69"/>
+      <c r="F205" s="69"/>
+      <c r="G205" s="69"/>
+      <c r="H205" s="69"/>
+      <c r="I205" s="69"/>
+      <c r="J205" s="85"/>
+      <c r="K205" s="85"/>
+      <c r="L205" s="69"/>
+      <c r="M205" s="69"/>
+      <c r="N205" s="69"/>
+      <c r="O205" s="69"/>
+      <c r="P205" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q205" s="62"/>
-      <c r="R205" s="64"/>
-      <c r="S205" s="64"/>
-      <c r="T205" s="64"/>
-      <c r="U205" s="65" t="s">
+      <c r="Q205" s="85"/>
+      <c r="R205" s="91"/>
+      <c r="S205" s="91"/>
+      <c r="T205" s="91"/>
+      <c r="U205" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V205" s="65"/>
-      <c r="W205" s="64"/>
-      <c r="X205" s="64"/>
+      <c r="V205" s="86"/>
+      <c r="W205" s="91"/>
+      <c r="X205" s="91"/>
     </row>
     <row r="206" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A206" s="74"/>
-      <c r="B206" s="74"/>
-      <c r="C206" s="74"/>
-      <c r="D206" s="74"/>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-      <c r="G206" s="63"/>
-      <c r="H206" s="63"/>
-      <c r="I206" s="63"/>
-      <c r="J206" s="62" t="s">
+      <c r="A206" s="84"/>
+      <c r="B206" s="84"/>
+      <c r="C206" s="84"/>
+      <c r="D206" s="84"/>
+      <c r="E206" s="69"/>
+      <c r="F206" s="69"/>
+      <c r="G206" s="69"/>
+      <c r="H206" s="69"/>
+      <c r="I206" s="69"/>
+      <c r="J206" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K206" s="62"/>
-      <c r="L206" s="64" t="s">
+      <c r="K206" s="85"/>
+      <c r="L206" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M206" s="64"/>
-      <c r="N206" s="64"/>
-      <c r="O206" s="64"/>
-      <c r="P206" s="65" t="s">
+      <c r="M206" s="91"/>
+      <c r="N206" s="91"/>
+      <c r="O206" s="91"/>
+      <c r="P206" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q206" s="65"/>
-      <c r="R206" s="64" t="s">
+      <c r="Q206" s="86"/>
+      <c r="R206" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S206" s="64"/>
-      <c r="T206" s="64"/>
-      <c r="U206" s="64"/>
-      <c r="V206" s="64"/>
-      <c r="W206" s="64"/>
-      <c r="X206" s="64"/>
+      <c r="S206" s="91"/>
+      <c r="T206" s="91"/>
+      <c r="U206" s="91"/>
+      <c r="V206" s="91"/>
+      <c r="W206" s="91"/>
+      <c r="X206" s="91"/>
     </row>
     <row r="207" spans="1:24">
       <c r="A207" s="14"/>
@@ -8366,35 +8574,234 @@
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L153:T153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:T154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:T155"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:T159"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="L204:O205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:X206"/>
+    <mergeCell ref="W204:X204"/>
+    <mergeCell ref="P205:Q205"/>
+    <mergeCell ref="R205:T205"/>
+    <mergeCell ref="U205:V205"/>
+    <mergeCell ref="W205:X205"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="R204:T204"/>
+    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="L156:T156"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:K48"/>
+    <mergeCell ref="L47:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="W82:X82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="L49:N50"/>
+    <mergeCell ref="A163:D165"/>
+    <mergeCell ref="E163:F165"/>
+    <mergeCell ref="G163:I165"/>
+    <mergeCell ref="J163:K164"/>
+    <mergeCell ref="L163:O164"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="R163:T163"/>
+    <mergeCell ref="U163:V163"/>
+    <mergeCell ref="W163:X163"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:T164"/>
+    <mergeCell ref="U164:V164"/>
+    <mergeCell ref="W164:X164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:X165"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="E204:F206"/>
+    <mergeCell ref="G204:I206"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:T150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="L151:T151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="L152:T152"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:T158"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="U49:V50"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:X83"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E52"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="F53:K54"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="A40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:I42"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="L40:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:X42"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A4:X12"/>
+    <mergeCell ref="G13:S17"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C55:E56"/>
+    <mergeCell ref="F55:K56"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:K60"/>
+    <mergeCell ref="L59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="F63:K64"/>
+    <mergeCell ref="L63:N64"/>
+    <mergeCell ref="O63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:E66"/>
+    <mergeCell ref="F65:K66"/>
+    <mergeCell ref="L65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="F67:K68"/>
+    <mergeCell ref="L67:N68"/>
+    <mergeCell ref="O67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="S67:T68"/>
+    <mergeCell ref="U67:V68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="F69:K70"/>
+    <mergeCell ref="L69:N70"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="S69:T70"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:K72"/>
+    <mergeCell ref="L71:N72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="S71:T72"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="F73:K74"/>
+    <mergeCell ref="L73:N74"/>
+    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="S73:T74"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="S75:T76"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L77:N78"/>
+    <mergeCell ref="O77:P78"/>
+    <mergeCell ref="Q77:R78"/>
+    <mergeCell ref="S77:T78"/>
+    <mergeCell ref="U77:V78"/>
     <mergeCell ref="O47:R47"/>
     <mergeCell ref="S47:V47"/>
     <mergeCell ref="D148:E148"/>
@@ -8419,234 +8826,35 @@
     <mergeCell ref="L75:N76"/>
     <mergeCell ref="O75:P76"/>
     <mergeCell ref="Q75:R76"/>
-    <mergeCell ref="S75:T76"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L77:N78"/>
-    <mergeCell ref="O77:P78"/>
-    <mergeCell ref="Q77:R78"/>
-    <mergeCell ref="S77:T78"/>
-    <mergeCell ref="U77:V78"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:K72"/>
-    <mergeCell ref="L71:N72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="S71:T72"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="F73:K74"/>
-    <mergeCell ref="L73:N74"/>
-    <mergeCell ref="O73:P74"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="S73:T74"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="F67:K68"/>
-    <mergeCell ref="L67:N68"/>
-    <mergeCell ref="O67:P68"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="S67:T68"/>
-    <mergeCell ref="U67:V68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="F69:K70"/>
-    <mergeCell ref="L69:N70"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="S69:T70"/>
-    <mergeCell ref="U69:V70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="F63:K64"/>
-    <mergeCell ref="L63:N64"/>
-    <mergeCell ref="O63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="S63:T64"/>
-    <mergeCell ref="U63:V64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:E66"/>
-    <mergeCell ref="F65:K66"/>
-    <mergeCell ref="L65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="S65:T66"/>
-    <mergeCell ref="U65:V66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:K60"/>
-    <mergeCell ref="L59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:V60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:N62"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="S61:T62"/>
-    <mergeCell ref="U61:V62"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="F55:K56"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="A4:X12"/>
-    <mergeCell ref="G13:S17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="A40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:I42"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="L40:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:X42"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:X83"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E52"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="F53:K54"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="E204:F206"/>
-    <mergeCell ref="G204:I206"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:T150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="L151:T151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="L152:T152"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:T158"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A163:D165"/>
-    <mergeCell ref="E163:F165"/>
-    <mergeCell ref="G163:I165"/>
-    <mergeCell ref="J163:K164"/>
-    <mergeCell ref="L163:O164"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="R163:T163"/>
-    <mergeCell ref="U163:V163"/>
-    <mergeCell ref="W163:X163"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:T164"/>
-    <mergeCell ref="U164:V164"/>
-    <mergeCell ref="W164:X164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:X165"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="L156:T156"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:K48"/>
-    <mergeCell ref="L47:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W81:X81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="W82:X82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="L49:N50"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="L204:O205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:X206"/>
-    <mergeCell ref="W204:X204"/>
-    <mergeCell ref="P205:Q205"/>
-    <mergeCell ref="R205:T205"/>
-    <mergeCell ref="U205:V205"/>
-    <mergeCell ref="W205:X205"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="R204:T204"/>
-    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L153:T153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:T154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:T155"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:T159"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -8656,10 +8864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7BAF47-5540-452B-A5E0-0183B26E9959}">
-  <dimension ref="A1:AB172"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A128" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A81" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8668,112 +8876,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="62" t="s">
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="63" t="s">
+      <c r="Q1" s="85"/>
+      <c r="R1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="65" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66">
+      <c r="V1" s="86"/>
+      <c r="W1" s="97">
         <v>45026</v>
       </c>
-      <c r="X1" s="64"/>
+      <c r="X1" s="91"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="62" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="65" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="64" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="64" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="14"/>
@@ -8949,112 +9157,112 @@
       <c r="X40" s="10"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="63" t="s">
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63" t="s">
+      <c r="F41" s="69"/>
+      <c r="G41" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="62" t="s">
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="62"/>
-      <c r="L41" s="63" t="s">
+      <c r="K41" s="85"/>
+      <c r="L41" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="62" t="s">
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="63" t="s">
+      <c r="Q41" s="85"/>
+      <c r="R41" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="65" t="s">
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V41" s="65"/>
-      <c r="W41" s="66">
+      <c r="V41" s="86"/>
+      <c r="W41" s="97">
         <v>45026</v>
       </c>
-      <c r="X41" s="64"/>
+      <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="62" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="65" t="s">
+      <c r="Q42" s="85"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="65"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="62" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="62"/>
-      <c r="L43" s="64" t="s">
+      <c r="K43" s="85"/>
+      <c r="L43" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="65" t="s">
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="64" t="s">
+      <c r="Q43" s="86"/>
+      <c r="R43" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="14"/>
@@ -9105,41 +9313,41 @@
       <c r="B48" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="97" t="s">
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="97"/>
-      <c r="H48" s="98" t="s">
+      <c r="G48" s="105"/>
+      <c r="H48" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98" t="s">
+      <c r="I48" s="106"/>
+      <c r="J48" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="98"/>
+      <c r="K48" s="106"/>
       <c r="L48" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="97" t="s">
+      <c r="M48" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="N48" s="97"/>
-      <c r="O48" s="98" t="s">
+      <c r="N48" s="105"/>
+      <c r="O48" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98" t="s">
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="R48" s="98"/>
-      <c r="S48" s="98"/>
-      <c r="T48" s="98"/>
-      <c r="U48" s="98"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="106"/>
+      <c r="U48" s="106"/>
       <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24">
@@ -9147,37 +9355,37 @@
       <c r="B49" s="61">
         <v>1</v>
       </c>
-      <c r="C49" s="99" t="s">
+      <c r="C49" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100" t="s">
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100">
+      <c r="G49" s="104"/>
+      <c r="H49" s="104">
         <v>50</v>
       </c>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100" t="s">
+      <c r="I49" s="104"/>
+      <c r="J49" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="K49" s="100"/>
+      <c r="K49" s="104"/>
       <c r="L49" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="M49" s="100" t="s">
+      <c r="M49" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
-      <c r="U49" s="100"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
       <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24">
@@ -9196,31 +9404,31 @@
       <c r="B52" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="105" t="s">
+      <c r="C52" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105" t="s">
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105" t="s">
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="105"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
       <c r="X52" s="10"/>
     </row>
     <row r="53" spans="1:24">
@@ -9258,29 +9466,29 @@
       <c r="B54" s="45">
         <v>2</v>
       </c>
-      <c r="C54" s="103" t="s">
+      <c r="C54" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="104" t="s">
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="104"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
-      <c r="U54" s="104"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
       <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24">
@@ -9288,31 +9496,31 @@
       <c r="B55" s="46">
         <v>3</v>
       </c>
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="107" t="s">
+      <c r="D55" s="151"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107" t="s">
+      <c r="J55" s="152"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="107"/>
-      <c r="U55" s="107"/>
+      <c r="M55" s="152"/>
+      <c r="N55" s="152"/>
+      <c r="O55" s="152"/>
+      <c r="P55" s="152"/>
+      <c r="Q55" s="152"/>
+      <c r="R55" s="152"/>
+      <c r="S55" s="152"/>
+      <c r="T55" s="152"/>
+      <c r="U55" s="152"/>
       <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24">
@@ -9331,41 +9539,41 @@
       <c r="B58" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="98" t="s">
+      <c r="C58" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="97" t="s">
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98" t="s">
+      <c r="G58" s="105"/>
+      <c r="H58" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98" t="s">
+      <c r="I58" s="106"/>
+      <c r="J58" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="98"/>
+      <c r="K58" s="106"/>
       <c r="L58" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="97" t="s">
+      <c r="M58" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="N58" s="97"/>
-      <c r="O58" s="98" t="s">
+      <c r="N58" s="105"/>
+      <c r="O58" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98" t="s">
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="R58" s="98"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="98"/>
-      <c r="U58" s="98"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
       <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24">
@@ -9601,37 +9809,37 @@
       <c r="B65" s="61">
         <v>7</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="100" t="s">
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100">
+      <c r="G65" s="104"/>
+      <c r="H65" s="104">
         <v>20</v>
       </c>
-      <c r="I65" s="100"/>
-      <c r="J65" s="100" t="s">
+      <c r="I65" s="104"/>
+      <c r="J65" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="K65" s="100"/>
-      <c r="L65" s="44" t="s">
+      <c r="K65" s="104"/>
+      <c r="L65" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="M65" s="100" t="s">
+      <c r="M65" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="N65" s="100"/>
-      <c r="O65" s="100"/>
-      <c r="P65" s="100"/>
-      <c r="Q65" s="100"/>
-      <c r="R65" s="100"/>
-      <c r="S65" s="100"/>
-      <c r="T65" s="100"/>
-      <c r="U65" s="100"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="104"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="104"/>
+      <c r="U65" s="104"/>
       <c r="X65" s="10"/>
     </row>
     <row r="66" spans="1:24">
@@ -9695,112 +9903,112 @@
       <c r="X80" s="10"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A81" s="74" t="s">
+      <c r="A81" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="74"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="63" t="s">
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63" t="s">
+      <c r="F81" s="69"/>
+      <c r="G81" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="62" t="s">
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="62"/>
-      <c r="L81" s="63" t="s">
+      <c r="K81" s="85"/>
+      <c r="L81" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="62" t="s">
+      <c r="M81" s="69"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q81" s="62"/>
-      <c r="R81" s="63" t="s">
+      <c r="Q81" s="85"/>
+      <c r="R81" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="63"/>
-      <c r="T81" s="63"/>
-      <c r="U81" s="65" t="s">
+      <c r="S81" s="69"/>
+      <c r="T81" s="69"/>
+      <c r="U81" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="65"/>
-      <c r="W81" s="66">
+      <c r="V81" s="86"/>
+      <c r="W81" s="97">
         <v>45026</v>
       </c>
-      <c r="X81" s="64"/>
+      <c r="X81" s="91"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="62" t="s">
+      <c r="A82" s="84"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="64"/>
-      <c r="S82" s="64"/>
-      <c r="T82" s="64"/>
-      <c r="U82" s="65" t="s">
+      <c r="Q82" s="85"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="91"/>
+      <c r="T82" s="91"/>
+      <c r="U82" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="65"/>
-      <c r="W82" s="64"/>
-      <c r="X82" s="64"/>
+      <c r="V82" s="86"/>
+      <c r="W82" s="91"/>
+      <c r="X82" s="91"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="62" t="s">
+      <c r="A83" s="84"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="62"/>
-      <c r="L83" s="64" t="s">
+      <c r="K83" s="85"/>
+      <c r="L83" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="65" t="s">
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="64" t="s">
+      <c r="Q83" s="86"/>
+      <c r="R83" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S83" s="64"/>
-      <c r="T83" s="64"/>
-      <c r="U83" s="64"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="64"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="14"/>
@@ -10371,112 +10579,112 @@
       <c r="X121" s="13"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="108" t="s">
+      <c r="A122" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="109"/>
-      <c r="C122" s="109"/>
-      <c r="D122" s="110"/>
-      <c r="E122" s="117" t="s">
+      <c r="B122" s="119"/>
+      <c r="C122" s="119"/>
+      <c r="D122" s="120"/>
+      <c r="E122" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="118"/>
-      <c r="G122" s="117" t="s">
+      <c r="F122" s="128"/>
+      <c r="G122" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="123"/>
-      <c r="I122" s="118"/>
-      <c r="J122" s="126" t="s">
+      <c r="H122" s="133"/>
+      <c r="I122" s="128"/>
+      <c r="J122" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="127"/>
-      <c r="L122" s="117" t="s">
+      <c r="K122" s="136"/>
+      <c r="L122" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="123"/>
-      <c r="N122" s="123"/>
-      <c r="O122" s="118"/>
-      <c r="P122" s="130" t="s">
+      <c r="M122" s="133"/>
+      <c r="N122" s="133"/>
+      <c r="O122" s="128"/>
+      <c r="P122" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="131"/>
-      <c r="R122" s="132" t="s">
+      <c r="Q122" s="140"/>
+      <c r="R122" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="S122" s="133"/>
-      <c r="T122" s="134"/>
-      <c r="U122" s="135" t="s">
+      <c r="S122" s="142"/>
+      <c r="T122" s="143"/>
+      <c r="U122" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="V122" s="136"/>
-      <c r="W122" s="137">
+      <c r="V122" s="145"/>
+      <c r="W122" s="146">
         <v>45026</v>
       </c>
-      <c r="X122" s="138"/>
+      <c r="X122" s="147"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="111"/>
-      <c r="B123" s="112"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="119"/>
-      <c r="F123" s="120"/>
-      <c r="G123" s="119"/>
-      <c r="H123" s="124"/>
-      <c r="I123" s="120"/>
-      <c r="J123" s="128"/>
-      <c r="K123" s="129"/>
-      <c r="L123" s="121"/>
-      <c r="M123" s="125"/>
-      <c r="N123" s="125"/>
-      <c r="O123" s="122"/>
-      <c r="P123" s="130" t="s">
+      <c r="A123" s="121"/>
+      <c r="B123" s="122"/>
+      <c r="C123" s="122"/>
+      <c r="D123" s="123"/>
+      <c r="E123" s="129"/>
+      <c r="F123" s="130"/>
+      <c r="G123" s="129"/>
+      <c r="H123" s="114"/>
+      <c r="I123" s="130"/>
+      <c r="J123" s="137"/>
+      <c r="K123" s="138"/>
+      <c r="L123" s="131"/>
+      <c r="M123" s="134"/>
+      <c r="N123" s="134"/>
+      <c r="O123" s="132"/>
+      <c r="P123" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="Q123" s="131"/>
-      <c r="R123" s="139"/>
-      <c r="S123" s="140"/>
-      <c r="T123" s="141"/>
-      <c r="U123" s="135" t="s">
+      <c r="Q123" s="140"/>
+      <c r="R123" s="148"/>
+      <c r="S123" s="149"/>
+      <c r="T123" s="150"/>
+      <c r="U123" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="V123" s="136"/>
-      <c r="W123" s="139"/>
-      <c r="X123" s="141"/>
+      <c r="V123" s="145"/>
+      <c r="W123" s="148"/>
+      <c r="X123" s="150"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="114"/>
-      <c r="B124" s="115"/>
-      <c r="C124" s="115"/>
-      <c r="D124" s="116"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="121"/>
-      <c r="H124" s="125"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="130" t="s">
+      <c r="A124" s="124"/>
+      <c r="B124" s="125"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="126"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="132"/>
+      <c r="G124" s="131"/>
+      <c r="H124" s="134"/>
+      <c r="I124" s="132"/>
+      <c r="J124" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="131"/>
-      <c r="L124" s="139" t="s">
+      <c r="K124" s="140"/>
+      <c r="L124" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="M124" s="140"/>
-      <c r="N124" s="140"/>
-      <c r="O124" s="141"/>
-      <c r="P124" s="135" t="s">
+      <c r="M124" s="149"/>
+      <c r="N124" s="149"/>
+      <c r="O124" s="150"/>
+      <c r="P124" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="136"/>
-      <c r="R124" s="139" t="s">
+      <c r="Q124" s="145"/>
+      <c r="R124" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="S124" s="140"/>
-      <c r="T124" s="140"/>
-      <c r="U124" s="140"/>
-      <c r="V124" s="140"/>
-      <c r="W124" s="140"/>
-      <c r="X124" s="141"/>
+      <c r="S124" s="149"/>
+      <c r="T124" s="149"/>
+      <c r="U124" s="149"/>
+      <c r="V124" s="149"/>
+      <c r="W124" s="149"/>
+      <c r="X124" s="150"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="49"/>
@@ -10648,33 +10856,33 @@
       <c r="E131" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F131" s="105" t="s">
+      <c r="F131" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="G131" s="105"/>
-      <c r="H131" s="105"/>
-      <c r="I131" s="105" t="s">
+      <c r="G131" s="108"/>
+      <c r="H131" s="108"/>
+      <c r="I131" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="J131" s="105"/>
-      <c r="K131" s="105"/>
-      <c r="L131" s="105"/>
-      <c r="M131" s="105"/>
-      <c r="N131" s="105"/>
-      <c r="O131" s="105" t="s">
+      <c r="J131" s="108"/>
+      <c r="K131" s="108"/>
+      <c r="L131" s="108"/>
+      <c r="M131" s="108"/>
+      <c r="N131" s="108"/>
+      <c r="O131" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="P131" s="105"/>
-      <c r="Q131" s="105"/>
-      <c r="R131" s="105" t="s">
+      <c r="P131" s="108"/>
+      <c r="Q131" s="108"/>
+      <c r="R131" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="S131" s="105"/>
-      <c r="T131" s="105" t="s">
+      <c r="S131" s="108"/>
+      <c r="T131" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="U131" s="105"/>
-      <c r="V131" s="105"/>
+      <c r="U131" s="108"/>
+      <c r="V131" s="108"/>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" s="49"/>
@@ -10684,29 +10892,29 @@
       <c r="E132" s="55">
         <v>1</v>
       </c>
-      <c r="F132" s="99" t="s">
+      <c r="F132" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G132" s="99"/>
-      <c r="H132" s="99"/>
-      <c r="I132" s="99" t="s">
+      <c r="G132" s="103"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="J132" s="99"/>
-      <c r="K132" s="99"/>
-      <c r="L132" s="99"/>
-      <c r="M132" s="99"/>
-      <c r="N132" s="99"/>
-      <c r="O132" s="100"/>
-      <c r="P132" s="100"/>
-      <c r="Q132" s="100"/>
-      <c r="R132" s="100" t="s">
+      <c r="J132" s="103"/>
+      <c r="K132" s="103"/>
+      <c r="L132" s="103"/>
+      <c r="M132" s="103"/>
+      <c r="N132" s="103"/>
+      <c r="O132" s="104"/>
+      <c r="P132" s="104"/>
+      <c r="Q132" s="104"/>
+      <c r="R132" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="S132" s="100"/>
-      <c r="T132" s="100"/>
-      <c r="U132" s="100"/>
-      <c r="V132" s="100"/>
+      <c r="S132" s="104"/>
+      <c r="T132" s="104"/>
+      <c r="U132" s="104"/>
+      <c r="V132" s="104"/>
     </row>
     <row r="133" spans="1:24">
       <c r="A133" s="49"/>
@@ -10716,29 +10924,29 @@
       <c r="E133" s="55">
         <v>2</v>
       </c>
-      <c r="F133" s="99" t="s">
+      <c r="F133" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G133" s="99"/>
-      <c r="H133" s="99"/>
-      <c r="I133" s="99" t="s">
+      <c r="G133" s="103"/>
+      <c r="H133" s="103"/>
+      <c r="I133" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="J133" s="99"/>
-      <c r="K133" s="99"/>
-      <c r="L133" s="99"/>
-      <c r="M133" s="99"/>
-      <c r="N133" s="99"/>
-      <c r="O133" s="100"/>
-      <c r="P133" s="100"/>
-      <c r="Q133" s="100"/>
-      <c r="R133" s="100" t="s">
+      <c r="J133" s="103"/>
+      <c r="K133" s="103"/>
+      <c r="L133" s="103"/>
+      <c r="M133" s="103"/>
+      <c r="N133" s="103"/>
+      <c r="O133" s="104"/>
+      <c r="P133" s="104"/>
+      <c r="Q133" s="104"/>
+      <c r="R133" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="S133" s="100"/>
-      <c r="T133" s="100"/>
-      <c r="U133" s="100"/>
-      <c r="V133" s="100"/>
+      <c r="S133" s="104"/>
+      <c r="T133" s="104"/>
+      <c r="U133" s="104"/>
+      <c r="V133" s="104"/>
     </row>
     <row r="134" spans="1:24">
       <c r="A134" s="49"/>
@@ -10748,29 +10956,29 @@
       <c r="E134" s="55">
         <v>3</v>
       </c>
-      <c r="F134" s="99" t="s">
+      <c r="F134" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="G134" s="99"/>
-      <c r="H134" s="99"/>
-      <c r="I134" s="99" t="s">
+      <c r="G134" s="103"/>
+      <c r="H134" s="103"/>
+      <c r="I134" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J134" s="99"/>
-      <c r="K134" s="99"/>
-      <c r="L134" s="99"/>
-      <c r="M134" s="99"/>
-      <c r="N134" s="99"/>
-      <c r="O134" s="100"/>
-      <c r="P134" s="100"/>
-      <c r="Q134" s="100"/>
-      <c r="R134" s="100" t="s">
+      <c r="J134" s="103"/>
+      <c r="K134" s="103"/>
+      <c r="L134" s="103"/>
+      <c r="M134" s="103"/>
+      <c r="N134" s="103"/>
+      <c r="O134" s="104"/>
+      <c r="P134" s="104"/>
+      <c r="Q134" s="104"/>
+      <c r="R134" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="S134" s="100"/>
-      <c r="T134" s="100"/>
-      <c r="U134" s="100"/>
-      <c r="V134" s="100"/>
+      <c r="S134" s="104"/>
+      <c r="T134" s="104"/>
+      <c r="U134" s="104"/>
+      <c r="V134" s="104"/>
     </row>
     <row r="135" spans="1:24">
       <c r="A135" s="49"/>
@@ -10783,19 +10991,9 @@
     <row r="136" spans="1:24">
       <c r="A136" s="49"/>
       <c r="B136" s="50"/>
-      <c r="C136" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D136" s="40"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
-      <c r="K136" s="40"/>
-      <c r="L136" s="40"/>
-      <c r="M136" s="40"/>
+      <c r="E136" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="N136" s="50"/>
       <c r="O136" s="50"/>
       <c r="P136" s="50"/>
@@ -10811,84 +11009,96 @@
     <row r="137" spans="1:24">
       <c r="A137" s="49"/>
       <c r="B137" s="50"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E137" s="56"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="40"/>
-      <c r="L137" s="40"/>
-      <c r="M137" s="40"/>
-      <c r="N137" s="50"/>
-      <c r="O137" s="50"/>
-      <c r="P137" s="50"/>
-      <c r="Q137" s="50"/>
-      <c r="R137" s="50"/>
-      <c r="S137" s="50"/>
-      <c r="T137" s="50"/>
-      <c r="U137" s="50"/>
-      <c r="V137" s="50"/>
+      <c r="E137" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="G137" s="108"/>
+      <c r="H137" s="108"/>
+      <c r="I137" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J137" s="108"/>
+      <c r="K137" s="108"/>
+      <c r="L137" s="108"/>
+      <c r="M137" s="108"/>
+      <c r="N137" s="108"/>
+      <c r="O137" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="P137" s="108"/>
+      <c r="Q137" s="108"/>
+      <c r="R137" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="S137" s="108"/>
+      <c r="T137" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="U137" s="108"/>
+      <c r="V137" s="108"/>
       <c r="W137" s="50"/>
       <c r="X137" s="51"/>
     </row>
     <row r="138" spans="1:24">
       <c r="A138" s="49"/>
       <c r="B138" s="50"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E138" s="56"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
-      <c r="K138" s="40"/>
-      <c r="L138" s="40"/>
-      <c r="M138" s="40"/>
-      <c r="N138" s="50"/>
-      <c r="O138" s="50"/>
-      <c r="P138" s="50"/>
-      <c r="Q138" s="50"/>
-      <c r="R138" s="50"/>
-      <c r="S138" s="50"/>
-      <c r="T138" s="50"/>
-      <c r="U138" s="50"/>
-      <c r="V138" s="50"/>
+      <c r="E138" s="61">
+        <v>1</v>
+      </c>
+      <c r="F138" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="G138" s="101"/>
+      <c r="H138" s="101"/>
+      <c r="I138" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="J138" s="156"/>
+      <c r="K138" s="156"/>
+      <c r="L138" s="156"/>
+      <c r="M138" s="156"/>
+      <c r="N138" s="157"/>
+      <c r="O138" s="117"/>
+      <c r="P138" s="117"/>
+      <c r="Q138" s="117"/>
+      <c r="R138" s="117"/>
+      <c r="S138" s="117"/>
+      <c r="T138" s="117"/>
+      <c r="U138" s="117"/>
+      <c r="V138" s="117"/>
       <c r="W138" s="50"/>
       <c r="X138" s="51"/>
     </row>
     <row r="139" spans="1:24">
       <c r="A139" s="49"/>
       <c r="B139" s="50"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="F139" s="152"/>
-      <c r="G139" s="152"/>
-      <c r="H139" s="152"/>
-      <c r="I139" s="152"/>
-      <c r="J139" s="152"/>
-      <c r="K139" s="152"/>
-      <c r="L139" s="152"/>
-      <c r="M139" s="152"/>
-      <c r="N139" s="153"/>
-      <c r="O139" s="153"/>
-      <c r="P139" s="153"/>
-      <c r="Q139" s="153"/>
-      <c r="R139" s="153"/>
-      <c r="S139" s="153"/>
-      <c r="T139" s="153"/>
-      <c r="U139" s="153"/>
-      <c r="V139" s="153"/>
+      <c r="E139" s="61">
+        <v>2</v>
+      </c>
+      <c r="F139" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" s="101"/>
+      <c r="H139" s="101"/>
+      <c r="I139" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="J139" s="156"/>
+      <c r="K139" s="156"/>
+      <c r="L139" s="156"/>
+      <c r="M139" s="156"/>
+      <c r="N139" s="157"/>
+      <c r="O139" s="117"/>
+      <c r="P139" s="117"/>
+      <c r="Q139" s="117"/>
+      <c r="R139" s="117"/>
+      <c r="S139" s="117"/>
+      <c r="T139" s="117"/>
+      <c r="U139" s="117"/>
+      <c r="V139" s="117"/>
       <c r="W139" s="50"/>
       <c r="X139" s="51"/>
     </row>
@@ -10897,24 +11107,30 @@
       <c r="B140" s="50"/>
       <c r="C140" s="50"/>
       <c r="D140" s="50"/>
-      <c r="E140" s="154"/>
-      <c r="F140" s="156"/>
-      <c r="G140" s="156"/>
-      <c r="H140" s="156"/>
-      <c r="I140" s="156"/>
+      <c r="E140" s="61">
+        <v>3</v>
+      </c>
+      <c r="F140" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="G140" s="101"/>
+      <c r="H140" s="101"/>
+      <c r="I140" s="155" t="s">
+        <v>100</v>
+      </c>
       <c r="J140" s="156"/>
       <c r="K140" s="156"/>
       <c r="L140" s="156"/>
       <c r="M140" s="156"/>
-      <c r="N140" s="156"/>
-      <c r="O140" s="156"/>
-      <c r="P140" s="156"/>
-      <c r="Q140" s="156"/>
-      <c r="R140" s="156"/>
-      <c r="S140" s="156"/>
-      <c r="T140" s="156"/>
-      <c r="U140" s="156"/>
-      <c r="V140" s="156"/>
+      <c r="N140" s="157"/>
+      <c r="O140" s="117"/>
+      <c r="P140" s="117"/>
+      <c r="Q140" s="117"/>
+      <c r="R140" s="117"/>
+      <c r="S140" s="117"/>
+      <c r="T140" s="117"/>
+      <c r="U140" s="117"/>
+      <c r="V140" s="117"/>
       <c r="W140" s="50"/>
       <c r="X140" s="51"/>
     </row>
@@ -10922,24 +11138,30 @@
       <c r="A141" s="49"/>
       <c r="C141" s="50"/>
       <c r="D141" s="50"/>
-      <c r="E141" s="155"/>
-      <c r="F141" s="156"/>
-      <c r="G141" s="156"/>
-      <c r="H141" s="156"/>
-      <c r="I141" s="156"/>
+      <c r="E141" s="61">
+        <v>4</v>
+      </c>
+      <c r="F141" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G141" s="101"/>
+      <c r="H141" s="101"/>
+      <c r="I141" s="155" t="s">
+        <v>106</v>
+      </c>
       <c r="J141" s="156"/>
       <c r="K141" s="156"/>
       <c r="L141" s="156"/>
       <c r="M141" s="156"/>
-      <c r="N141" s="156"/>
-      <c r="O141" s="156"/>
-      <c r="P141" s="156"/>
-      <c r="Q141" s="156"/>
-      <c r="R141" s="156"/>
-      <c r="S141" s="156"/>
-      <c r="T141" s="156"/>
-      <c r="U141" s="156"/>
-      <c r="V141" s="156"/>
+      <c r="N141" s="157"/>
+      <c r="O141" s="117"/>
+      <c r="P141" s="117"/>
+      <c r="Q141" s="117"/>
+      <c r="R141" s="117"/>
+      <c r="S141" s="117"/>
+      <c r="T141" s="117"/>
+      <c r="U141" s="117"/>
+      <c r="V141" s="117"/>
       <c r="W141" s="50"/>
       <c r="X141" s="51"/>
     </row>
@@ -10947,24 +11169,30 @@
       <c r="A142" s="49"/>
       <c r="C142" s="50"/>
       <c r="D142" s="50"/>
-      <c r="E142" s="155"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
-      <c r="H142" s="156"/>
-      <c r="I142" s="156"/>
+      <c r="E142" s="61">
+        <v>5</v>
+      </c>
+      <c r="F142" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G142" s="101"/>
+      <c r="H142" s="101"/>
+      <c r="I142" s="155" t="s">
+        <v>107</v>
+      </c>
       <c r="J142" s="156"/>
       <c r="K142" s="156"/>
       <c r="L142" s="156"/>
       <c r="M142" s="156"/>
-      <c r="N142" s="156"/>
-      <c r="O142" s="156"/>
-      <c r="P142" s="156"/>
-      <c r="Q142" s="156"/>
-      <c r="R142" s="156"/>
-      <c r="S142" s="156"/>
-      <c r="T142" s="156"/>
-      <c r="U142" s="156"/>
-      <c r="V142" s="156"/>
+      <c r="N142" s="157"/>
+      <c r="O142" s="117"/>
+      <c r="P142" s="117"/>
+      <c r="Q142" s="117"/>
+      <c r="R142" s="117"/>
+      <c r="S142" s="117"/>
+      <c r="T142" s="117"/>
+      <c r="U142" s="117"/>
+      <c r="V142" s="117"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
     </row>
@@ -10972,229 +11200,243 @@
       <c r="A143" s="49"/>
       <c r="C143" s="50"/>
       <c r="D143" s="50"/>
-      <c r="E143" s="155"/>
-      <c r="F143" s="156"/>
-      <c r="G143" s="156"/>
-      <c r="H143" s="156"/>
-      <c r="I143" s="156"/>
+      <c r="E143" s="61">
+        <v>6</v>
+      </c>
+      <c r="F143" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G143" s="101"/>
+      <c r="H143" s="101"/>
+      <c r="I143" s="155" t="s">
+        <v>96</v>
+      </c>
       <c r="J143" s="156"/>
       <c r="K143" s="156"/>
       <c r="L143" s="156"/>
       <c r="M143" s="156"/>
-      <c r="N143" s="156"/>
-      <c r="O143" s="156"/>
-      <c r="P143" s="156"/>
-      <c r="Q143" s="156"/>
-      <c r="R143" s="156"/>
-      <c r="S143" s="156"/>
-      <c r="T143" s="156"/>
-      <c r="U143" s="156"/>
-      <c r="V143" s="156"/>
+      <c r="N143" s="157"/>
+      <c r="O143" s="117"/>
+      <c r="P143" s="117"/>
+      <c r="Q143" s="117"/>
+      <c r="R143" s="117"/>
+      <c r="S143" s="117"/>
+      <c r="T143" s="117"/>
+      <c r="U143" s="117"/>
+      <c r="V143" s="117"/>
       <c r="W143" s="50"/>
       <c r="X143" s="51"/>
     </row>
     <row r="144" spans="1:24">
       <c r="A144" s="49"/>
+      <c r="E144" s="44">
+        <v>7</v>
+      </c>
+      <c r="F144" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="G144" s="101"/>
+      <c r="H144" s="101"/>
+      <c r="I144" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="J144" s="161"/>
+      <c r="K144" s="161"/>
+      <c r="L144" s="161"/>
+      <c r="M144" s="161"/>
+      <c r="N144" s="162"/>
+      <c r="O144" s="109"/>
+      <c r="P144" s="109"/>
+      <c r="Q144" s="109"/>
+      <c r="R144" s="109"/>
+      <c r="S144" s="109"/>
+      <c r="T144" s="109"/>
+      <c r="U144" s="109"/>
+      <c r="V144" s="109"/>
       <c r="W144" s="50"/>
       <c r="X144" s="51"/>
     </row>
     <row r="145" spans="1:24">
       <c r="A145" s="49"/>
+      <c r="E145" s="164"/>
+      <c r="F145" s="165"/>
+      <c r="G145" s="165"/>
+      <c r="H145" s="165"/>
+      <c r="I145" s="165"/>
+      <c r="J145" s="165"/>
+      <c r="K145" s="165"/>
+      <c r="L145" s="165"/>
+      <c r="M145" s="165"/>
+      <c r="N145" s="165"/>
+      <c r="O145" s="166"/>
+      <c r="P145" s="166"/>
+      <c r="Q145" s="166"/>
+      <c r="R145" s="166"/>
+      <c r="S145" s="166"/>
+      <c r="T145" s="166"/>
+      <c r="U145" s="166"/>
+      <c r="V145" s="166"/>
       <c r="W145" s="50"/>
       <c r="X145" s="51"/>
     </row>
     <row r="146" spans="1:24">
       <c r="A146" s="49"/>
+      <c r="E146" s="163"/>
+      <c r="F146" s="158"/>
+      <c r="G146" s="158"/>
+      <c r="H146" s="158"/>
+      <c r="I146" s="158"/>
+      <c r="J146" s="158"/>
+      <c r="K146" s="158"/>
+      <c r="L146" s="158"/>
+      <c r="M146" s="158"/>
+      <c r="N146" s="158"/>
+      <c r="O146" s="159"/>
+      <c r="P146" s="159"/>
+      <c r="Q146" s="159"/>
+      <c r="R146" s="159"/>
+      <c r="S146" s="159"/>
+      <c r="T146" s="159"/>
+      <c r="U146" s="159"/>
+      <c r="V146" s="159"/>
       <c r="W146" s="50"/>
       <c r="X146" s="51"/>
     </row>
     <row r="147" spans="1:24">
       <c r="A147" s="49"/>
+      <c r="E147" s="163"/>
+      <c r="F147" s="158"/>
+      <c r="G147" s="158"/>
+      <c r="H147" s="158"/>
+      <c r="I147" s="158"/>
+      <c r="J147" s="158"/>
+      <c r="K147" s="158"/>
+      <c r="L147" s="158"/>
+      <c r="M147" s="158"/>
+      <c r="N147" s="158"/>
+      <c r="O147" s="159"/>
+      <c r="P147" s="159"/>
+      <c r="Q147" s="159"/>
+      <c r="R147" s="159"/>
+      <c r="S147" s="159"/>
+      <c r="T147" s="159"/>
+      <c r="U147" s="159"/>
+      <c r="V147" s="159"/>
       <c r="W147" s="50"/>
       <c r="X147" s="51"/>
     </row>
     <row r="148" spans="1:24">
       <c r="A148" s="49"/>
+      <c r="E148" s="163"/>
+      <c r="F148" s="158"/>
+      <c r="G148" s="158"/>
+      <c r="H148" s="158"/>
+      <c r="I148" s="158"/>
+      <c r="J148" s="158"/>
+      <c r="K148" s="158"/>
+      <c r="L148" s="158"/>
+      <c r="M148" s="158"/>
+      <c r="N148" s="158"/>
+      <c r="O148" s="159"/>
+      <c r="P148" s="159"/>
+      <c r="Q148" s="159"/>
+      <c r="R148" s="159"/>
+      <c r="S148" s="159"/>
+      <c r="T148" s="159"/>
+      <c r="U148" s="159"/>
+      <c r="V148" s="159"/>
       <c r="W148" s="50"/>
       <c r="X148" s="51"/>
     </row>
     <row r="149" spans="1:24">
       <c r="A149" s="49"/>
+      <c r="E149" s="163"/>
+      <c r="F149" s="158"/>
+      <c r="G149" s="158"/>
+      <c r="H149" s="158"/>
+      <c r="I149" s="158"/>
+      <c r="J149" s="158"/>
+      <c r="K149" s="158"/>
+      <c r="L149" s="158"/>
+      <c r="M149" s="158"/>
+      <c r="N149" s="158"/>
+      <c r="O149" s="159"/>
+      <c r="P149" s="159"/>
+      <c r="Q149" s="159"/>
+      <c r="R149" s="159"/>
+      <c r="S149" s="159"/>
+      <c r="T149" s="159"/>
+      <c r="U149" s="159"/>
+      <c r="V149" s="159"/>
       <c r="W149" s="50"/>
       <c r="X149" s="51"/>
     </row>
     <row r="150" spans="1:24">
       <c r="A150" s="49"/>
-      <c r="C150" s="50"/>
-      <c r="V150" s="50"/>
+      <c r="E150" s="163"/>
+      <c r="F150" s="158"/>
+      <c r="G150" s="158"/>
+      <c r="H150" s="158"/>
+      <c r="I150" s="158"/>
+      <c r="J150" s="158"/>
+      <c r="K150" s="158"/>
+      <c r="L150" s="158"/>
+      <c r="M150" s="158"/>
+      <c r="N150" s="158"/>
+      <c r="O150" s="159"/>
+      <c r="P150" s="159"/>
+      <c r="Q150" s="159"/>
+      <c r="R150" s="159"/>
+      <c r="S150" s="159"/>
+      <c r="T150" s="159"/>
+      <c r="U150" s="159"/>
+      <c r="V150" s="159"/>
       <c r="W150" s="50"/>
       <c r="X150" s="51"/>
     </row>
     <row r="151" spans="1:24">
       <c r="A151" s="49"/>
-      <c r="V151" s="50"/>
       <c r="W151" s="50"/>
       <c r="X151" s="51"/>
     </row>
     <row r="152" spans="1:24">
       <c r="A152" s="49"/>
-      <c r="D152" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E152" s="57"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="50"/>
-      <c r="J152" s="50"/>
-      <c r="K152" s="50"/>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50"/>
-      <c r="N152" s="50"/>
-      <c r="O152" s="50"/>
-      <c r="P152" s="50"/>
-      <c r="Q152" s="50"/>
-      <c r="R152" s="50"/>
-      <c r="S152" s="50"/>
-      <c r="T152" s="50"/>
-      <c r="U152" s="50"/>
-      <c r="V152" s="50"/>
       <c r="W152" s="50"/>
       <c r="X152" s="51"/>
     </row>
     <row r="153" spans="1:24">
       <c r="A153" s="49"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="50"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="50"/>
-      <c r="H153" s="50"/>
-      <c r="I153" s="50"/>
-      <c r="J153" s="50"/>
-      <c r="K153" s="50"/>
-      <c r="L153" s="50"/>
-      <c r="M153" s="50"/>
-      <c r="N153" s="50"/>
-      <c r="O153" s="50"/>
-      <c r="P153" s="50"/>
-      <c r="Q153" s="50"/>
-      <c r="R153" s="50"/>
-      <c r="S153" s="50"/>
-      <c r="T153" s="50"/>
-      <c r="U153" s="50"/>
-      <c r="V153" s="50"/>
       <c r="W153" s="50"/>
       <c r="X153" s="51"/>
     </row>
     <row r="154" spans="1:24">
       <c r="A154" s="49"/>
-      <c r="D154" s="50"/>
-      <c r="E154" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="F154" s="149"/>
-      <c r="G154" s="149"/>
-      <c r="H154" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="I154" s="149"/>
-      <c r="J154" s="149"/>
-      <c r="K154" s="149"/>
-      <c r="L154" s="149"/>
-      <c r="M154" s="149"/>
-      <c r="N154" s="149"/>
-      <c r="O154" s="149"/>
-      <c r="P154" s="149"/>
-      <c r="Q154" s="149"/>
-      <c r="R154" s="149"/>
-      <c r="S154" s="149"/>
-      <c r="T154" s="149"/>
-      <c r="U154" s="149"/>
-      <c r="V154" s="149"/>
       <c r="W154" s="50"/>
       <c r="X154" s="51"/>
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="49"/>
-      <c r="E155" s="144" t="s">
-        <v>44</v>
-      </c>
-      <c r="F155" s="145"/>
-      <c r="G155" s="146"/>
-      <c r="H155" s="150" t="s">
-        <v>68</v>
-      </c>
-      <c r="I155" s="150"/>
-      <c r="J155" s="150"/>
-      <c r="K155" s="150"/>
-      <c r="L155" s="150"/>
-      <c r="M155" s="150"/>
-      <c r="N155" s="150"/>
-      <c r="O155" s="150"/>
-      <c r="P155" s="150"/>
-      <c r="Q155" s="150"/>
-      <c r="R155" s="150"/>
-      <c r="S155" s="150"/>
-      <c r="T155" s="150"/>
-      <c r="U155" s="150"/>
-      <c r="V155" s="150"/>
       <c r="W155" s="50"/>
       <c r="X155" s="51"/>
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="49"/>
-      <c r="E156" s="147"/>
-      <c r="F156" s="124"/>
-      <c r="G156" s="148"/>
-      <c r="H156" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="I156" s="143"/>
-      <c r="J156" s="143"/>
-      <c r="K156" s="143"/>
-      <c r="L156" s="143"/>
-      <c r="M156" s="143"/>
-      <c r="N156" s="143"/>
-      <c r="O156" s="143"/>
-      <c r="P156" s="143"/>
-      <c r="Q156" s="143"/>
-      <c r="R156" s="143"/>
-      <c r="S156" s="143"/>
-      <c r="T156" s="143"/>
-      <c r="U156" s="143"/>
-      <c r="V156" s="143"/>
       <c r="W156" s="50"/>
       <c r="X156" s="51"/>
     </row>
     <row r="157" spans="1:24">
       <c r="A157" s="49"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
-      <c r="M157" s="60"/>
-      <c r="N157" s="60"/>
-      <c r="O157" s="60"/>
-      <c r="P157" s="60"/>
-      <c r="Q157" s="60"/>
-      <c r="R157" s="60"/>
-      <c r="S157" s="60"/>
-      <c r="T157" s="60"/>
-      <c r="U157" s="60"/>
-      <c r="V157" s="60"/>
       <c r="W157" s="50"/>
       <c r="X157" s="51"/>
     </row>
     <row r="158" spans="1:24">
       <c r="A158" s="49"/>
-      <c r="E158" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F158" s="54"/>
+      <c r="C158" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" s="40"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="40"/>
       <c r="G158" s="40"/>
       <c r="H158" s="40"/>
       <c r="I158" s="40"/>
@@ -11202,24 +11444,17 @@
       <c r="K158" s="40"/>
       <c r="L158" s="40"/>
       <c r="M158" s="40"/>
-      <c r="N158" s="40"/>
-      <c r="O158" s="40"/>
-      <c r="P158" s="40"/>
-      <c r="Q158" s="40"/>
-      <c r="R158" s="50"/>
-      <c r="S158" s="50"/>
-      <c r="T158" s="50"/>
-      <c r="U158" s="50"/>
-      <c r="V158" s="50"/>
       <c r="W158" s="50"/>
       <c r="X158" s="51"/>
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="49"/>
+      <c r="C159" s="52"/>
+      <c r="D159" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="E159" s="56"/>
-      <c r="F159" s="40" t="s">
-        <v>70</v>
-      </c>
+      <c r="F159" s="40"/>
       <c r="G159" s="40"/>
       <c r="H159" s="40"/>
       <c r="I159" s="40"/>
@@ -11227,19 +11462,17 @@
       <c r="K159" s="40"/>
       <c r="L159" s="40"/>
       <c r="M159" s="40"/>
-      <c r="N159" s="40"/>
-      <c r="O159" s="40"/>
-      <c r="P159" s="40"/>
-      <c r="Q159" s="40"/>
       <c r="W159" s="50"/>
       <c r="X159" s="51"/>
     </row>
     <row r="160" spans="1:24">
       <c r="A160" s="49"/>
-      <c r="E160" s="57"/>
-      <c r="F160" s="54" t="s">
-        <v>71</v>
-      </c>
+      <c r="C160" s="52"/>
+      <c r="D160" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E160" s="56"/>
+      <c r="F160" s="40"/>
       <c r="G160" s="40"/>
       <c r="H160" s="40"/>
       <c r="I160" s="40"/>
@@ -11247,19 +11480,17 @@
       <c r="K160" s="40"/>
       <c r="L160" s="40"/>
       <c r="M160" s="40"/>
-      <c r="N160" s="40"/>
-      <c r="O160" s="40"/>
-      <c r="P160" s="40"/>
-      <c r="Q160" s="40"/>
       <c r="W160" s="50"/>
       <c r="X160" s="51"/>
     </row>
     <row r="161" spans="1:24">
       <c r="A161" s="49"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="54" t="s">
-        <v>72</v>
-      </c>
+      <c r="C161" s="52"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F161" s="40"/>
       <c r="G161" s="40"/>
       <c r="H161" s="40"/>
       <c r="I161" s="40"/>
@@ -11267,150 +11498,164 @@
       <c r="K161" s="40"/>
       <c r="L161" s="40"/>
       <c r="M161" s="40"/>
-      <c r="N161" s="40"/>
-      <c r="O161" s="40"/>
-      <c r="P161" s="40"/>
-      <c r="Q161" s="40"/>
       <c r="W161" s="50"/>
       <c r="X161" s="51"/>
     </row>
     <row r="162" spans="1:24">
       <c r="A162" s="50"/>
       <c r="B162" s="50"/>
+      <c r="C162" s="50"/>
+      <c r="V162" s="50"/>
       <c r="W162" s="50"/>
       <c r="X162" s="50"/>
     </row>
     <row r="163" spans="1:24">
-      <c r="E163" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="F163" s="105"/>
-      <c r="G163" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="H163" s="105"/>
-      <c r="I163" s="105"/>
-      <c r="J163" s="105"/>
-      <c r="K163" s="105"/>
-      <c r="L163" s="105"/>
-      <c r="M163" s="105"/>
-      <c r="N163" s="105"/>
-      <c r="O163" s="105"/>
-      <c r="P163" s="105"/>
-      <c r="Q163" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="R163" s="105"/>
-      <c r="S163" s="105"/>
-      <c r="T163" s="105"/>
-      <c r="U163" s="105"/>
-      <c r="V163" s="105"/>
+      <c r="V163" s="50"/>
     </row>
     <row r="164" spans="1:24">
-      <c r="E164" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="F164" s="142"/>
-      <c r="G164" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="H164" s="99"/>
-      <c r="I164" s="99"/>
-      <c r="J164" s="99"/>
-      <c r="K164" s="99"/>
-      <c r="L164" s="99"/>
-      <c r="M164" s="99"/>
-      <c r="N164" s="99"/>
-      <c r="O164" s="99"/>
-      <c r="P164" s="99"/>
-      <c r="Q164" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="R164" s="99"/>
-      <c r="S164" s="99"/>
-      <c r="T164" s="99"/>
-      <c r="U164" s="99"/>
-      <c r="V164" s="99"/>
+      <c r="D164" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="57"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="59"/>
+      <c r="I164" s="50"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="50"/>
+      <c r="M164" s="50"/>
+      <c r="N164" s="50"/>
+      <c r="O164" s="50"/>
+      <c r="P164" s="50"/>
+      <c r="Q164" s="50"/>
+      <c r="R164" s="50"/>
+      <c r="S164" s="50"/>
+      <c r="T164" s="50"/>
+      <c r="U164" s="50"/>
+      <c r="V164" s="50"/>
     </row>
     <row r="165" spans="1:24">
-      <c r="E165" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="F165" s="142"/>
-      <c r="G165" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="H165" s="99"/>
-      <c r="I165" s="99"/>
-      <c r="J165" s="99"/>
-      <c r="K165" s="99"/>
-      <c r="L165" s="99"/>
-      <c r="M165" s="99"/>
-      <c r="N165" s="99"/>
-      <c r="O165" s="99"/>
-      <c r="P165" s="99"/>
-      <c r="Q165" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="R165" s="99"/>
-      <c r="S165" s="99"/>
-      <c r="T165" s="99"/>
-      <c r="U165" s="99"/>
-      <c r="V165" s="99"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="50"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="50"/>
+      <c r="M165" s="50"/>
+      <c r="N165" s="50"/>
+      <c r="O165" s="50"/>
+      <c r="P165" s="50"/>
+      <c r="Q165" s="50"/>
+      <c r="R165" s="50"/>
+      <c r="S165" s="50"/>
+      <c r="T165" s="50"/>
+      <c r="U165" s="50"/>
+      <c r="V165" s="50"/>
+    </row>
+    <row r="166" spans="1:24">
+      <c r="D166" s="50"/>
+      <c r="E166" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="F166" s="116"/>
+      <c r="G166" s="116"/>
+      <c r="H166" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166" s="116"/>
+      <c r="J166" s="116"/>
+      <c r="K166" s="116"/>
+      <c r="L166" s="116"/>
+      <c r="M166" s="116"/>
+      <c r="N166" s="116"/>
+      <c r="O166" s="116"/>
+      <c r="P166" s="116"/>
+      <c r="Q166" s="116"/>
+      <c r="R166" s="116"/>
+      <c r="S166" s="116"/>
+      <c r="T166" s="116"/>
+      <c r="U166" s="116"/>
+      <c r="V166" s="116"/>
+    </row>
+    <row r="167" spans="1:24">
+      <c r="E167" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F167" s="111"/>
+      <c r="G167" s="112"/>
+      <c r="H167" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="I167" s="117"/>
+      <c r="J167" s="117"/>
+      <c r="K167" s="117"/>
+      <c r="L167" s="117"/>
+      <c r="M167" s="117"/>
+      <c r="N167" s="117"/>
+      <c r="O167" s="117"/>
+      <c r="P167" s="117"/>
+      <c r="Q167" s="117"/>
+      <c r="R167" s="117"/>
+      <c r="S167" s="117"/>
+      <c r="T167" s="117"/>
+      <c r="U167" s="117"/>
+      <c r="V167" s="117"/>
     </row>
     <row r="168" spans="1:24">
-      <c r="C168" s="53"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="40"/>
-      <c r="G168" s="40"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="40"/>
-      <c r="K168" s="40"/>
-      <c r="L168" s="40"/>
-      <c r="M168" s="40"/>
-      <c r="N168" s="40"/>
-      <c r="O168" s="40"/>
-      <c r="P168" s="40"/>
-      <c r="Q168" s="40"/>
-      <c r="R168" s="40"/>
-      <c r="S168" s="40"/>
-      <c r="T168" s="40"/>
-      <c r="U168" s="40"/>
-      <c r="V168" s="40"/>
+      <c r="E168" s="113"/>
+      <c r="F168" s="114"/>
+      <c r="G168" s="115"/>
+      <c r="H168" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="I168" s="109"/>
+      <c r="J168" s="109"/>
+      <c r="K168" s="109"/>
+      <c r="L168" s="109"/>
+      <c r="M168" s="109"/>
+      <c r="N168" s="109"/>
+      <c r="O168" s="109"/>
+      <c r="P168" s="109"/>
+      <c r="Q168" s="109"/>
+      <c r="R168" s="109"/>
+      <c r="S168" s="109"/>
+      <c r="T168" s="109"/>
+      <c r="U168" s="109"/>
+      <c r="V168" s="109"/>
       <c r="W168" s="40"/>
       <c r="X168" s="40"/>
     </row>
     <row r="169" spans="1:24">
-      <c r="C169" s="52"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="40"/>
-      <c r="F169" s="40"/>
-      <c r="G169" s="40"/>
-      <c r="H169" s="40"/>
-      <c r="I169" s="40"/>
-      <c r="J169" s="40"/>
-      <c r="K169" s="40"/>
-      <c r="L169" s="40"/>
-      <c r="M169" s="40"/>
-      <c r="N169" s="40"/>
-      <c r="O169" s="40"/>
-      <c r="P169" s="40"/>
-      <c r="Q169" s="40"/>
-      <c r="R169" s="40"/>
-      <c r="S169" s="40"/>
-      <c r="T169" s="40"/>
-      <c r="U169" s="40"/>
-      <c r="V169" s="40"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="60"/>
+      <c r="O169" s="60"/>
+      <c r="P169" s="60"/>
+      <c r="Q169" s="60"/>
+      <c r="R169" s="60"/>
+      <c r="S169" s="60"/>
+      <c r="T169" s="60"/>
+      <c r="U169" s="60"/>
+      <c r="V169" s="60"/>
       <c r="W169" s="40"/>
       <c r="X169" s="40"/>
     </row>
     <row r="170" spans="1:24">
-      <c r="C170" s="53"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="40"/>
+      <c r="E170" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F170" s="54"/>
       <c r="G170" s="40"/>
       <c r="H170" s="40"/>
       <c r="I170" s="40"/>
@@ -11422,19 +11667,19 @@
       <c r="O170" s="40"/>
       <c r="P170" s="40"/>
       <c r="Q170" s="40"/>
-      <c r="R170" s="40"/>
-      <c r="S170" s="40"/>
-      <c r="T170" s="40"/>
-      <c r="U170" s="40"/>
-      <c r="V170" s="40"/>
+      <c r="R170" s="50"/>
+      <c r="S170" s="50"/>
+      <c r="T170" s="50"/>
+      <c r="U170" s="50"/>
+      <c r="V170" s="50"/>
       <c r="W170" s="40"/>
       <c r="X170" s="40"/>
     </row>
     <row r="171" spans="1:24">
-      <c r="C171" s="52"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="40"/>
-      <c r="F171" s="40"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="G171" s="40"/>
       <c r="H171" s="40"/>
       <c r="I171" s="40"/>
@@ -11446,21 +11691,14 @@
       <c r="O171" s="40"/>
       <c r="P171" s="40"/>
       <c r="Q171" s="40"/>
-      <c r="R171" s="40"/>
-      <c r="S171" s="40"/>
-      <c r="T171" s="40"/>
-      <c r="U171" s="40"/>
-      <c r="V171" s="40"/>
       <c r="W171" s="40"/>
       <c r="X171" s="40"/>
     </row>
     <row r="172" spans="1:24">
-      <c r="C172" s="52"/>
-      <c r="D172" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E172" s="40"/>
-      <c r="F172" s="40"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="G172" s="40"/>
       <c r="H172" s="40"/>
       <c r="I172" s="40"/>
@@ -11472,119 +11710,189 @@
       <c r="O172" s="40"/>
       <c r="P172" s="40"/>
       <c r="Q172" s="40"/>
-      <c r="R172" s="40"/>
-      <c r="S172" s="40"/>
-      <c r="T172" s="40"/>
-      <c r="U172" s="40"/>
-      <c r="V172" s="40"/>
       <c r="W172" s="40"/>
       <c r="X172" s="40"/>
     </row>
+    <row r="173" spans="1:24">
+      <c r="E173" s="56"/>
+      <c r="F173" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="40"/>
+      <c r="L173" s="40"/>
+      <c r="M173" s="40"/>
+      <c r="N173" s="40"/>
+      <c r="O173" s="40"/>
+      <c r="P173" s="40"/>
+      <c r="Q173" s="40"/>
+    </row>
+    <row r="175" spans="1:24">
+      <c r="E175" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="F175" s="108"/>
+      <c r="G175" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H175" s="108"/>
+      <c r="I175" s="108"/>
+      <c r="J175" s="108"/>
+      <c r="K175" s="108"/>
+      <c r="L175" s="108"/>
+      <c r="M175" s="108"/>
+      <c r="N175" s="108"/>
+      <c r="O175" s="108"/>
+      <c r="P175" s="108"/>
+      <c r="Q175" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="R175" s="108"/>
+      <c r="S175" s="108"/>
+      <c r="T175" s="108"/>
+      <c r="U175" s="108"/>
+      <c r="V175" s="108"/>
+    </row>
+    <row r="176" spans="1:24">
+      <c r="E176" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F176" s="107"/>
+      <c r="G176" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" s="103"/>
+      <c r="I176" s="103"/>
+      <c r="J176" s="103"/>
+      <c r="K176" s="103"/>
+      <c r="L176" s="103"/>
+      <c r="M176" s="103"/>
+      <c r="N176" s="103"/>
+      <c r="O176" s="103"/>
+      <c r="P176" s="103"/>
+      <c r="Q176" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="R176" s="103"/>
+      <c r="S176" s="103"/>
+      <c r="T176" s="103"/>
+      <c r="U176" s="103"/>
+      <c r="V176" s="103"/>
+    </row>
+    <row r="177" spans="5:22">
+      <c r="E177" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="F177" s="107"/>
+      <c r="G177" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" s="103"/>
+      <c r="I177" s="103"/>
+      <c r="J177" s="103"/>
+      <c r="K177" s="103"/>
+      <c r="L177" s="103"/>
+      <c r="M177" s="103"/>
+      <c r="N177" s="103"/>
+      <c r="O177" s="103"/>
+      <c r="P177" s="103"/>
+      <c r="Q177" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="R177" s="103"/>
+      <c r="S177" s="103"/>
+      <c r="T177" s="103"/>
+      <c r="U177" s="103"/>
+      <c r="V177" s="103"/>
+    </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:U64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:U65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:U62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:U63"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:U60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:U61"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:U59"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:P165"/>
-    <mergeCell ref="Q165:V165"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:P163"/>
-    <mergeCell ref="Q163:V163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:P164"/>
-    <mergeCell ref="Q164:V164"/>
-    <mergeCell ref="H156:V156"/>
-    <mergeCell ref="E155:G156"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="H154:V154"/>
-    <mergeCell ref="H155:V155"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="I134:N134"/>
-    <mergeCell ref="O134:Q134"/>
-    <mergeCell ref="R134:S134"/>
-    <mergeCell ref="T134:V134"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="O131:Q131"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="T131:V131"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="T133:V133"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="I132:N132"/>
-    <mergeCell ref="O132:Q132"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="T132:V132"/>
-    <mergeCell ref="A122:D124"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:I124"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
+  <mergeCells count="224">
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="O144:Q144"/>
+    <mergeCell ref="R144:S144"/>
+    <mergeCell ref="T144:V144"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="I142:N142"/>
+    <mergeCell ref="O142:Q142"/>
+    <mergeCell ref="R142:S142"/>
+    <mergeCell ref="T142:V142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:N143"/>
+    <mergeCell ref="O143:Q143"/>
+    <mergeCell ref="R143:S143"/>
+    <mergeCell ref="T143:V143"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="I140:N140"/>
+    <mergeCell ref="O140:Q140"/>
+    <mergeCell ref="R140:S140"/>
+    <mergeCell ref="T140:V140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="O141:Q141"/>
+    <mergeCell ref="R141:S141"/>
+    <mergeCell ref="T141:V141"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:X43"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A41:D43"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:O42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:U53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:U54"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:U52"/>
     <mergeCell ref="W81:X81"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="R82:T82"/>
@@ -11609,30 +11917,1279 @@
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="J58:K58"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:U53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:U54"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:U52"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A122:D124"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:I124"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="O131:Q131"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:V131"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="T133:V133"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="I132:N132"/>
+    <mergeCell ref="O132:Q132"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="T132:V132"/>
+    <mergeCell ref="H168:V168"/>
+    <mergeCell ref="E167:G168"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="H166:V166"/>
+    <mergeCell ref="H167:V167"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="O134:Q134"/>
+    <mergeCell ref="R134:S134"/>
+    <mergeCell ref="T134:V134"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="I137:N137"/>
+    <mergeCell ref="O137:Q137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="T137:V137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:N138"/>
+    <mergeCell ref="O138:Q138"/>
+    <mergeCell ref="R138:S138"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:N139"/>
+    <mergeCell ref="O139:Q139"/>
+    <mergeCell ref="R139:S139"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:P177"/>
+    <mergeCell ref="Q177:V177"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:P175"/>
+    <mergeCell ref="Q175:V175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:P176"/>
+    <mergeCell ref="Q176:V176"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:U59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:U60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:U61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:U62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:U63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:U64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:U65"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="26" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8175ADE6-A053-4690-9874-E297D5A779B2}">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" view="pageBreakPreview" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="128"/>
+      <c r="G1" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="133"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="136"/>
+      <c r="L1" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="142"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="145"/>
+      <c r="W1" s="146">
+        <v>45026</v>
+      </c>
+      <c r="X1" s="147"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="145"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="150"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="140"/>
+      <c r="L3" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="148" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="150"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="49"/>
+      <c r="B5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="51"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="51"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="51"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="49"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="51"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="49"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="51"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="51"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="55">
+        <v>1</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="51"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="55">
+        <v>2</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="51"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="55">
+        <v>3</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="51"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="49"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="51"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="49"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="51"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="49"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="51"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="49"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="51"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="49"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="51"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="49"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="51"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="49"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="51"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="49"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="51"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="49"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="51"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="49"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="51"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="49"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="51"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="49"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="51"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="49"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="51"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="49"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="51"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="49"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="51"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="49"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="51"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="51"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="51"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="51"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="51"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="51"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="51"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="49"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="51"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="49"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="51"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="49"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="51"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="49"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="51"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="51"/>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="51"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="51"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A46" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="128"/>
+      <c r="G46" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="133"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="136"/>
+      <c r="L46" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="140"/>
+      <c r="R46" s="141" t="s">
+        <v>12</v>
+      </c>
+      <c r="S46" s="142"/>
+      <c r="T46" s="143"/>
+      <c r="U46" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" s="145"/>
+      <c r="W46" s="146">
+        <v>45026</v>
+      </c>
+      <c r="X46" s="147"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="134"/>
+      <c r="N47" s="134"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="148"/>
+      <c r="S47" s="149"/>
+      <c r="T47" s="150"/>
+      <c r="U47" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="145"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="150"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="140"/>
+      <c r="L48" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="M48" s="149"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="150"/>
+      <c r="P48" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="145"/>
+      <c r="R48" s="148" t="s">
+        <v>83</v>
+      </c>
+      <c r="S48" s="149"/>
+      <c r="T48" s="149"/>
+      <c r="U48" s="149"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="150"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="E52" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
@@ -11641,34 +13198,51 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:V10"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A41:D43"/>
-    <mergeCell ref="E41:F43"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:O42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:X43"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="A46:D48"/>
+    <mergeCell ref="E46:F48"/>
+    <mergeCell ref="G46:I48"/>
+    <mergeCell ref="J46:K47"/>
+    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="R48:X48"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P48:Q48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="26" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>